--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\unity_lua_benchmark\uLua-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\unity_lua_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sLua/uLua</t>
+    <t>toLua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -203,13 +203,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,6 +371,12 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -234,14 +386,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,8 +657,52 @@
           </c:val>
         </c:ser>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>toLua WIN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>170.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>346.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2229.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>614.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>sLua OSX</c:v>
           </c:tx>
@@ -523,7 +746,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>uLua OSX</c:v>
           </c:tx>
@@ -565,6 +788,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>toLua OSX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>419.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>769.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4200.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2751.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>709.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1183.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -574,11 +841,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1899251856"/>
-        <c:axId val="1899261648"/>
+        <c:axId val="-648665728"/>
+        <c:axId val="-648675520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1899251856"/>
+        <c:axId val="-648665728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,7 +888,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1899261648"/>
+        <c:crossAx val="-648675520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -629,7 +896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1899261648"/>
+        <c:axId val="-648675520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -639,12 +906,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -681,7 +943,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1899251856"/>
+        <c:crossAx val="-648665728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -984,8 +1246,52 @@
           </c:val>
         </c:ser>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>toLua WIN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>sLua OSX</c:v>
           </c:tx>
@@ -1029,7 +1335,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>uLua OSX</c:v>
           </c:tx>
@@ -1071,6 +1377,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>toLua OSX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$8:$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1080,11 +1430,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1899258928"/>
-        <c:axId val="1899250224"/>
+        <c:axId val="-648672256"/>
+        <c:axId val="-648668992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1899258928"/>
+        <c:axId val="-648672256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1127,7 +1477,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1899250224"/>
+        <c:crossAx val="-648668992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1135,7 +1485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1899250224"/>
+        <c:axId val="-648668992"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1145,12 +1495,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1187,7 +1532,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1899258928"/>
+        <c:crossAx val="-648672256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1486,8 +1831,54 @@
           </c:val>
         </c:ser>
         <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>toLua WIN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>341.99999990000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2224.9998999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>608.99999000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99990000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>sLua Android</c:v>
           </c:tx>
@@ -1557,7 +1948,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>uLua Android</c:v>
           </c:tx>
@@ -1626,8 +2017,54 @@
           </c:val>
         </c:ser>
         <c:ser>
+          <c:idx val="9"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>toLua Android</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$9:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1372.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6658.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1746.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
           <c:idx val="5"/>
-          <c:order val="4"/>
+          <c:order val="6"/>
           <c:tx>
             <c:v>sLua OSX</c:v>
           </c:tx>
@@ -1671,7 +2108,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:order val="7"/>
           <c:tx>
             <c:v>uLua OSX</c:v>
           </c:tx>
@@ -1716,8 +2153,54 @@
           </c:val>
         </c:ser>
         <c:ser>
+          <c:idx val="10"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>toLua OSX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$6:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>415.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>776.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4246.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2785.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1097.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1195.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
           <c:idx val="4"/>
-          <c:order val="6"/>
+          <c:order val="9"/>
           <c:tx>
             <c:v>sLua iOS</c:v>
           </c:tx>
@@ -1761,7 +2244,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="10"/>
           <c:tx>
             <c:v>uLua iOS</c:v>
           </c:tx>
@@ -1805,6 +2288,52 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>toLua iOS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$10:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1682.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5802.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10149.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13706.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4404.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3029.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1814,11 +2343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1899253488"/>
-        <c:axId val="1899262192"/>
+        <c:axId val="-648671168"/>
+        <c:axId val="-648670624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1899253488"/>
+        <c:axId val="-648671168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,15 +2390,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1899262192"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="-648670624"/>
+        <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1899262192"/>
+        <c:axId val="-648670624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1879,12 +2408,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1921,560 +2445,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1899253488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>LUA Clock(sLua/uLua)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>WIN</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$O$2:$T$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>test1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>test4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>test5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>test6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$O$3:$T$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.355265315044538</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99367088607594933</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.06222576785002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2496147919876734</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.000010000100001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>OSX</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$O$2:$T$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>test1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>test4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>test5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>test6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$O$6:$T$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.7694517596361026</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5791739754425129</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3218509370913845</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0547134449084272</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4822277955547869</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3215715102507555</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Android</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$O$2:$T$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>test1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>test4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>test5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>test6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$O$9:$T$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.6310275032741994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95283216052393227</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23039215686274511</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0581850402421915</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2692157191570239</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5384615384615383</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>iOS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$O$2:$T$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>test1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>test4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>test5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>test6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$O$10:$T$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.71696587867975026</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2037601058825405</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.48250292510676374</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0427258374435482</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2440588370489543</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.52136391719214281</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1660574768"/>
-        <c:axId val="1660576400"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1660574768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1660576400"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1660576400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1660574768"/>
+        <c:crossAx val="-648671168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2675,46 +2646,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -4230,511 +4161,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4742,13 +4168,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>116463</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4769,16 +4195,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>102462</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4801,16 +4227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>3362</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>111498</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4826,38 +4252,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5131,8 +4525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5143,168 +4537,169 @@
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="8" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="13">
         <v>248</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="14">
         <v>314</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="14">
         <v>9</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="14">
         <v>2663</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="14">
         <v>811</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="15">
         <v>1</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="13">
         <v>182.99</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="14">
         <v>316</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="14">
         <v>9</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="14">
         <v>2507</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="14">
         <v>649</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="15">
         <v>0.99999000000000005</v>
       </c>
-      <c r="O3" s="4">
-        <f>C3/I3</f>
-        <v>1.355265315044538</v>
-      </c>
-      <c r="P3" s="4">
-        <f t="shared" ref="P3:T3" si="0">D3/J3</f>
-        <v>0.99367088607594933</v>
-      </c>
-      <c r="Q3" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R3" s="4">
-        <f t="shared" si="0"/>
-        <v>1.06222576785002</v>
-      </c>
-      <c r="S3" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2496147919876734</v>
-      </c>
-      <c r="T3" s="4">
-        <f t="shared" si="0"/>
-        <v>1.000010000100001</v>
+      <c r="O3" s="13">
+        <f>0.16*1000</f>
+        <v>160</v>
+      </c>
+      <c r="P3" s="14">
+        <f>0.3419999999*1000</f>
+        <v>341.99999990000003</v>
+      </c>
+      <c r="Q3" s="14">
+        <f>0.009*1000</f>
+        <v>9</v>
+      </c>
+      <c r="R3" s="14">
+        <f xml:space="preserve"> 2.2249999*1000</f>
+        <v>2224.9998999999998</v>
+      </c>
+      <c r="S3" s="14">
+        <f>0.60899999*1000</f>
+        <v>608.99999000000003</v>
+      </c>
+      <c r="T3" s="15">
+        <f>0.0009999*1000</f>
+        <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="16">
         <v>255.35</v>
       </c>
       <c r="D4" s="4">
@@ -5319,10 +4714,10 @@
       <c r="G4" s="4">
         <v>811.19</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="17">
         <v>6.53</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="16">
         <v>189.3</v>
       </c>
       <c r="J4" s="4">
@@ -5337,40 +4732,34 @@
       <c r="M4" s="4">
         <v>653.5</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="17">
         <v>6.54</v>
       </c>
-      <c r="O4" s="4">
-        <f t="shared" ref="O4:O9" si="1">C4/I4</f>
-        <v>1.3489170628631799</v>
+      <c r="O4" s="16">
+        <v>170.9</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" ref="P4:P9" si="2">D4/J4</f>
-        <v>0.99720062208398141</v>
+        <v>346.9</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" ref="Q4:Q10" si="3">E4/K4</f>
-        <v>0.98913781398506451</v>
+        <v>14.13</v>
       </c>
       <c r="R4" s="4">
-        <f t="shared" ref="R4:R9" si="4">F4/L4</f>
-        <v>1.0634939586417689</v>
+        <v>2229.85</v>
       </c>
       <c r="S4" s="4">
-        <f t="shared" ref="S4:S9" si="5">G4/M4</f>
-        <v>1.241300688599847</v>
-      </c>
-      <c r="T4" s="4">
-        <f t="shared" ref="T4:T9" si="6">H4/N4</f>
-        <v>0.99847094801223246</v>
+        <v>614.22</v>
+      </c>
+      <c r="T4" s="17">
+        <v>6.21</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="16">
         <v>19.600000000000001</v>
       </c>
       <c r="D5" s="4">
@@ -5386,10 +4775,10 @@
       <c r="G5" s="4">
         <v>3000</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="17">
         <v>19.600000000000001</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="16">
         <v>16.5</v>
       </c>
       <c r="J5" s="4">
@@ -5404,42 +4793,36 @@
       <c r="M5" s="4">
         <v>1500</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="17">
         <v>15.6</v>
       </c>
-      <c r="O5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.187878787878788</v>
+      <c r="O5" s="16">
+        <v>16.600000000000001</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="2"/>
-        <v>1.2098765432098766</v>
+        <v>14.8</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="3"/>
-        <v>1.2580645161290323</v>
+        <v>14.7</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" si="4"/>
-        <v>1.5407407407407407</v>
+        <v>13200</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="6"/>
-        <v>1.2564102564102566</v>
+        <v>1500</v>
+      </c>
+      <c r="T5" s="17">
+        <v>14.8</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="16">
         <v>739.1</v>
       </c>
       <c r="D6" s="4">
@@ -5454,10 +4837,10 @@
       <c r="G6" s="4">
         <v>1713.9</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="17">
         <v>1618</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="16">
         <v>417.7</v>
       </c>
       <c r="J6" s="4">
@@ -5472,40 +4855,34 @@
       <c r="M6" s="4">
         <v>1156.3</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="17">
         <v>1224.3</v>
       </c>
-      <c r="O6" s="4">
-        <f t="shared" si="1"/>
-        <v>1.7694517596361026</v>
+      <c r="O6" s="16">
+        <v>415.5</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="2"/>
-        <v>1.5791739754425129</v>
+        <v>776.1</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" si="3"/>
-        <v>1.3218509370913845</v>
+        <v>4246.3999999999996</v>
       </c>
       <c r="R6" s="4">
-        <f t="shared" si="4"/>
-        <v>1.0547134449084272</v>
+        <v>2785.5</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="5"/>
-        <v>1.4822277955547869</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="6"/>
-        <v>1.3215715102507555</v>
+        <v>1097.9000000000001</v>
+      </c>
+      <c r="T6" s="17">
+        <v>1195.8</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="16">
         <v>738.1</v>
       </c>
       <c r="D7" s="4">
@@ -5520,10 +4897,10 @@
       <c r="G7" s="4">
         <v>1293.8</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="17">
         <v>1610.7</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="16">
         <v>418.3</v>
       </c>
       <c r="J7" s="4">
@@ -5538,40 +4915,34 @@
       <c r="M7" s="4">
         <v>767.6</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="17">
         <v>1218.0999999999999</v>
       </c>
-      <c r="O7" s="4">
-        <f t="shared" si="1"/>
-        <v>1.7645230695672962</v>
+      <c r="O7" s="16">
+        <v>419.7</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="2"/>
-        <v>1.5789246279404705</v>
+        <v>769.6</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" si="3"/>
-        <v>0.17591865577889448</v>
+        <v>4200.6000000000004</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" si="4"/>
-        <v>1.0532473971244423</v>
+        <v>2751.1</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="5"/>
-        <v>1.6855132881709223</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="6"/>
-        <v>1.3223052294557098</v>
+        <v>709.7</v>
+      </c>
+      <c r="T7" s="17">
+        <v>1183.8</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="16">
         <v>15</v>
       </c>
       <c r="D8" s="4">
@@ -5586,10 +4957,10 @@
       <c r="G8" s="4">
         <v>3000</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="17">
         <v>15</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="16">
         <v>12.2</v>
       </c>
       <c r="J8" s="4">
@@ -5604,42 +4975,36 @@
       <c r="M8" s="4">
         <v>1500</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="17">
         <v>11.3</v>
       </c>
-      <c r="O8" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2295081967213115</v>
+      <c r="O8" s="16">
+        <v>13.4</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>10.8</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="3"/>
-        <v>1.3274336283185839</v>
+        <v>10.7</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="T8" s="4">
-        <f t="shared" si="6"/>
-        <v>1.3274336283185839</v>
+        <v>1500</v>
+      </c>
+      <c r="T8" s="17">
+        <v>10.8</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="16">
         <v>1369.9</v>
       </c>
       <c r="D9" s="4">
@@ -5654,10 +5019,10 @@
       <c r="G9" s="4">
         <v>2270.5</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="17">
         <v>13.2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="16">
         <v>839.9</v>
       </c>
       <c r="J9" s="4">
@@ -5672,100 +5037,88 @@
       <c r="M9" s="4">
         <v>1788.9</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="17">
         <v>5.2</v>
       </c>
-      <c r="O9" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6310275032741994</v>
+      <c r="O9" s="16">
+        <v>904</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="2"/>
-        <v>0.95283216052393227</v>
+        <v>1372.4</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="3"/>
-        <v>0.23039215686274511</v>
+        <v>255.3</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="4"/>
-        <v>1.0581850402421915</v>
+        <v>6658.8</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2692157191570239</v>
-      </c>
-      <c r="T9" s="4">
-        <f t="shared" si="6"/>
-        <v>2.5384615384615383</v>
+        <v>1746.1</v>
+      </c>
+      <c r="T9" s="17">
+        <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="18">
         <v>2571.9</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="19">
         <v>7548.9</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="19">
         <v>22969.599999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="19">
         <v>17039.599999999999</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="19">
         <v>5412.9</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="20">
         <v>5316.4</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="18">
         <v>3587.2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="19">
         <v>6271.1</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="19">
         <v>47605.1</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="19">
         <v>16341.4</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="19">
         <v>4351</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="20">
         <v>10197.1</v>
       </c>
-      <c r="O10" s="4">
-        <f t="shared" ref="O10" si="7">C10/I10</f>
-        <v>0.71696587867975026</v>
-      </c>
-      <c r="P10" s="4">
-        <f t="shared" ref="P10" si="8">D10/J10</f>
-        <v>1.2037601058825405</v>
-      </c>
-      <c r="Q10" s="4">
-        <f t="shared" ref="Q10" si="9">E10/K10</f>
-        <v>0.48250292510676374</v>
-      </c>
-      <c r="R10" s="4">
-        <f t="shared" ref="R10" si="10">F10/L10</f>
-        <v>1.0427258374435482</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" ref="S10" si="11">G10/M10</f>
-        <v>1.2440588370489543</v>
-      </c>
-      <c r="T10" s="4">
-        <f t="shared" ref="T10" si="12">H10/N10</f>
-        <v>0.52136391719214281</v>
+      <c r="O10" s="18">
+        <v>1682.4</v>
+      </c>
+      <c r="P10" s="19">
+        <v>5802.2</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>10149.4</v>
+      </c>
+      <c r="R10" s="19">
+        <v>13706.2</v>
+      </c>
+      <c r="S10" s="19">
+        <v>4404.8999999999996</v>
+      </c>
+      <c r="T10" s="20">
+        <v>3029.4</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -2,29 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\unity_lua_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="4125" yWindow="9885" windowWidth="21585" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>Profiler Time(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +96,10 @@
     <t>toLua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>mono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +109,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,16 +125,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -137,26 +164,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -164,33 +191,33 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -199,163 +226,218 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,24 +452,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -422,8 +486,81 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -565,22 +702,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>255.35</c:v>
+                  <c:v>247.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>320.60000000000002</c:v>
+                  <c:v>321.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.57</c:v>
+                  <c:v>12.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2672.22</c:v>
+                  <c:v>2675.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>811.19</c:v>
+                  <c:v>953.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.53</c:v>
+                  <c:v>3.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -635,22 +772,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>189.3</c:v>
+                  <c:v>183.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321.5</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.73</c:v>
+                  <c:v>10.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2512.6799999999998</c:v>
+                  <c:v>2637.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>653.5</c:v>
+                  <c:v>585.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.54</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,22 +816,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>170.9</c:v>
+                  <c:v>160.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>346.9</c:v>
+                  <c:v>317.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.13</c:v>
+                  <c:v>10.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2229.85</c:v>
+                  <c:v>2221.0500000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>614.22</c:v>
+                  <c:v>609.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.21</c:v>
+                  <c:v>3.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,22 +860,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>738.1</c:v>
+                  <c:v>730.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>986.67</c:v>
+                  <c:v>976.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>448.1</c:v>
+                  <c:v>450.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3186.6</c:v>
+                  <c:v>3183.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1293.8</c:v>
+                  <c:v>1281.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1610.7</c:v>
+                  <c:v>1553.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,22 +904,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>418.3</c:v>
+                  <c:v>426.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>624.9</c:v>
+                  <c:v>613.70000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2547.1999999999998</c:v>
+                  <c:v>2542.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3025.5</c:v>
+                  <c:v>3044.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>767.6</c:v>
+                  <c:v>793.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1218.0999999999999</c:v>
+                  <c:v>1126.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,22 +948,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>419.7</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>769.6</c:v>
+                  <c:v>698.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4200.6000000000004</c:v>
+                  <c:v>3900.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2751.1</c:v>
+                  <c:v>2555.7600000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>709.7</c:v>
+                  <c:v>719.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1183.8</c:v>
+                  <c:v>1143.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,11 +978,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-648665728"/>
-        <c:axId val="-648675520"/>
+        <c:axId val="-2137794464"/>
+        <c:axId val="-2137803168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-648665728"/>
+        <c:axId val="-2137794464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +1025,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-648675520"/>
+        <c:crossAx val="-2137803168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -896,7 +1033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-648675520"/>
+        <c:axId val="-2137803168"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -943,7 +1080,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-648665728"/>
+        <c:crossAx val="-2137794464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1154,13 +1291,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>22.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>22.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.5</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20800</c:v>
@@ -1169,7 +1306,7 @@
                   <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>23.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,13 +1361,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16.5</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.2</c:v>
+                  <c:v>18.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.5</c:v>
+                  <c:v>17.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13500</c:v>
@@ -1239,7 +1376,7 @@
                   <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.6</c:v>
+                  <c:v>17.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1268,13 +1405,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16.600000000000001</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.8</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.7</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13200</c:v>
@@ -1283,7 +1420,7 @@
                   <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.8</c:v>
+                  <c:v>17.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1312,13 +1449,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>17.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>17.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>17.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20800</c:v>
@@ -1327,7 +1464,7 @@
                   <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,13 +1493,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.2</c:v>
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.3</c:v>
+                  <c:v>15.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20800</c:v>
@@ -1371,7 +1508,7 @@
                   <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.3</c:v>
+                  <c:v>16.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,13 +1537,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.4</c:v>
+                  <c:v>17.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.8</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.7</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12000</c:v>
@@ -1415,7 +1552,7 @@
                   <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1430,11 +1567,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-648672256"/>
-        <c:axId val="-648668992"/>
+        <c:axId val="-2137802624"/>
+        <c:axId val="-2137802080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-648672256"/>
+        <c:axId val="-2137802624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,7 +1614,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-648668992"/>
+        <c:crossAx val="-2137802080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1485,7 +1622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-648668992"/>
+        <c:axId val="-2137802080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1532,7 +1669,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-648672256"/>
+        <c:crossAx val="-2137802624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1739,19 +1876,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>248</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>314</c:v>
+                  <c:v>318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>8.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2663</c:v>
+                  <c:v>2672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>811</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -1809,22 +1946,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>182.99</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>316</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2507</c:v>
+                  <c:v>2635</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>649</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99999000000000005</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1855,22 +1992,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>160</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>341.99999990000003</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2224.9998999999998</c:v>
+                  <c:v>2219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>608.99999000000003</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99990000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1925,22 +2062,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1369.9</c:v>
+                  <c:v>1245.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1367.6</c:v>
+                  <c:v>1236.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.2</c:v>
+                  <c:v>67.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8598.6</c:v>
+                  <c:v>7976.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2270.5</c:v>
+                  <c:v>2439.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.2</c:v>
+                  <c:v>12.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,22 +2132,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>839.9</c:v>
+                  <c:v>771.524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1435.3</c:v>
+                  <c:v>1161.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>326.39999999999998</c:v>
+                  <c:v>287.12599999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8125.8</c:v>
+                  <c:v>7271.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1788.9</c:v>
+                  <c:v>1625.307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2</c:v>
+                  <c:v>21.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2041,22 +2178,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>904</c:v>
+                  <c:v>822.61800000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1372.4</c:v>
+                  <c:v>1421.6189999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>255.3</c:v>
+                  <c:v>253.43199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6658.8</c:v>
+                  <c:v>6529.7259999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1746.1</c:v>
+                  <c:v>1532.1279999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2085,22 +2222,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>739.1</c:v>
+                  <c:v>731.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>990.3</c:v>
+                  <c:v>977.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9098.2999999999993</c:v>
+                  <c:v>8778.2000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3207.7</c:v>
+                  <c:v>3196.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1713.9</c:v>
+                  <c:v>1765.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1618</c:v>
+                  <c:v>1558.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2131,22 +2268,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>417.7</c:v>
+                  <c:v>426.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>627.1</c:v>
+                  <c:v>615.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6883</c:v>
+                  <c:v>6787.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3041.3</c:v>
+                  <c:v>3061.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1156.3</c:v>
+                  <c:v>1249.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1224.3</c:v>
+                  <c:v>1131.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,22 +2314,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>415.5</c:v>
+                  <c:v>404.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>776.1</c:v>
+                  <c:v>701.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4246.3999999999996</c:v>
+                  <c:v>3921.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2785.5</c:v>
+                  <c:v>2568.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1097.9000000000001</c:v>
+                  <c:v>1174.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1195.8</c:v>
+                  <c:v>1149.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2221,22 +2358,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2571.9</c:v>
+                  <c:v>2547.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7548.9</c:v>
+                  <c:v>7557.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22969.599999999999</c:v>
+                  <c:v>22580.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17039.599999999999</c:v>
+                  <c:v>17957.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5412.9</c:v>
+                  <c:v>5685.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5316.4</c:v>
+                  <c:v>5585.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2267,22 +2404,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3587.2</c:v>
+                  <c:v>3445.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6271.1</c:v>
+                  <c:v>6354.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47605.1</c:v>
+                  <c:v>48315.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16341.4</c:v>
+                  <c:v>16737.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4351</c:v>
+                  <c:v>5278.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10197.1</c:v>
+                  <c:v>10050.799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2313,22 +2450,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1682.4</c:v>
+                  <c:v>1687.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5802.2</c:v>
+                  <c:v>5970.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10149.4</c:v>
+                  <c:v>11021.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13706.2</c:v>
+                  <c:v>14502.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4404.8999999999996</c:v>
+                  <c:v>3833.97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3029.4</c:v>
+                  <c:v>3589.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2343,11 +2480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-648671168"/>
-        <c:axId val="-648670624"/>
+        <c:axId val="-1904293872"/>
+        <c:axId val="-1904294416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-648671168"/>
+        <c:axId val="-1904293872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2390,7 +2527,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-648670624"/>
+        <c:crossAx val="-1904294416"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2398,7 +2535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-648670624"/>
+        <c:axId val="-1904294416"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2445,7 +2582,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-648671168"/>
+        <c:crossAx val="-1904293872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4523,269 +4660,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="5" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
     </row>
-    <row r="2" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="12" t="s">
+    <row r="2" spans="1:26" ht="14.25" thickBot="1">
+      <c r="A2" s="33"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="U2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:26">
+      <c r="A3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13">
-        <v>248</v>
-      </c>
-      <c r="D3" s="14">
-        <v>314</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="C3" s="7">
+        <v>242</v>
+      </c>
+      <c r="D3" s="8">
+        <v>318</v>
+      </c>
+      <c r="E3" s="8">
+        <v>8.99</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2672</v>
+      </c>
+      <c r="G3" s="8">
+        <v>950</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>193</v>
+      </c>
+      <c r="J3" s="8">
+        <v>292</v>
+      </c>
+      <c r="K3" s="8">
         <v>9</v>
       </c>
-      <c r="F3" s="14">
-        <v>2663</v>
-      </c>
-      <c r="G3" s="14">
-        <v>811</v>
-      </c>
-      <c r="H3" s="15">
+      <c r="L3" s="8">
+        <v>2635</v>
+      </c>
+      <c r="M3" s="8">
+        <v>580</v>
+      </c>
+      <c r="N3" s="9">
         <v>1</v>
       </c>
-      <c r="I3" s="13">
-        <v>182.99</v>
-      </c>
-      <c r="J3" s="14">
-        <v>316</v>
-      </c>
-      <c r="K3" s="14">
-        <v>9</v>
-      </c>
-      <c r="L3" s="14">
-        <v>2507</v>
-      </c>
-      <c r="M3" s="14">
-        <v>649</v>
-      </c>
-      <c r="N3" s="15">
-        <v>0.99999000000000005</v>
-      </c>
-      <c r="O3" s="13">
-        <f>0.16*1000</f>
-        <v>160</v>
-      </c>
-      <c r="P3" s="14">
-        <f>0.3419999999*1000</f>
-        <v>341.99999990000003</v>
-      </c>
-      <c r="Q3" s="14">
-        <f>0.009*1000</f>
-        <v>9</v>
-      </c>
-      <c r="R3" s="14">
-        <f xml:space="preserve"> 2.2249999*1000</f>
-        <v>2224.9998999999998</v>
-      </c>
-      <c r="S3" s="14">
-        <f>0.60899999*1000</f>
-        <v>608.99999000000003</v>
-      </c>
-      <c r="T3" s="15">
-        <f>0.0009999*1000</f>
-        <v>0.99990000000000001</v>
+      <c r="O3" s="7">
+        <v>148</v>
+      </c>
+      <c r="P3" s="8">
+        <v>313</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>2</v>
+      </c>
+      <c r="R3" s="8">
+        <v>2219</v>
+      </c>
+      <c r="S3" s="8">
+        <v>606</v>
+      </c>
+      <c r="T3" s="16">
+        <v>1</v>
+      </c>
+      <c r="U3" s="29">
+        <v>27.53</v>
+      </c>
+      <c r="V3" s="16">
+        <v>62.2</v>
+      </c>
+      <c r="W3" s="16">
+        <v>164.14</v>
+      </c>
+      <c r="X3" s="16">
+        <v>1296.4000000000001</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>266.39999999999998</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>42.88</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:26">
+      <c r="A4" s="34"/>
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16">
-        <v>255.35</v>
+      <c r="C4" s="10">
+        <v>247.9</v>
       </c>
       <c r="D4" s="4">
-        <v>320.60000000000002</v>
+        <v>321.86</v>
       </c>
       <c r="E4" s="4">
-        <v>14.57</v>
+        <v>12.05</v>
       </c>
       <c r="F4" s="4">
-        <v>2672.22</v>
+        <v>2675.3</v>
       </c>
       <c r="G4" s="4">
-        <v>811.19</v>
-      </c>
-      <c r="H4" s="17">
-        <v>6.53</v>
-      </c>
-      <c r="I4" s="16">
-        <v>189.3</v>
+        <v>953.2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3.73</v>
+      </c>
+      <c r="I4" s="10">
+        <v>183.5</v>
       </c>
       <c r="J4" s="4">
-        <v>321.5</v>
+        <v>301</v>
       </c>
       <c r="K4" s="4">
-        <v>14.73</v>
+        <v>10.82</v>
       </c>
       <c r="L4" s="4">
-        <v>2512.6799999999998</v>
+        <v>2637.8</v>
       </c>
       <c r="M4" s="4">
-        <v>653.5</v>
-      </c>
-      <c r="N4" s="17">
-        <v>6.54</v>
-      </c>
-      <c r="O4" s="16">
-        <v>170.9</v>
+        <v>585.4</v>
+      </c>
+      <c r="N4" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="O4" s="10">
+        <v>160.1</v>
       </c>
       <c r="P4" s="4">
-        <v>346.9</v>
+        <v>317.48</v>
       </c>
       <c r="Q4" s="4">
-        <v>14.13</v>
+        <v>10.9</v>
       </c>
       <c r="R4" s="4">
-        <v>2229.85</v>
+        <v>2221.0500000000002</v>
       </c>
       <c r="S4" s="4">
-        <v>614.22</v>
+        <v>609.13</v>
       </c>
       <c r="T4" s="17">
-        <v>6.21</v>
+        <v>3.81</v>
+      </c>
+      <c r="U4" s="30">
+        <v>28.2</v>
+      </c>
+      <c r="V4" s="17">
+        <v>61.9</v>
+      </c>
+      <c r="W4" s="17">
+        <v>164.37</v>
+      </c>
+      <c r="X4" s="39">
+        <v>1296.5999999999999</v>
+      </c>
+      <c r="Y4" s="17">
+        <v>268.94</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>53.52</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:26">
+      <c r="A5" s="34"/>
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16">
-        <v>19.600000000000001</v>
+      <c r="C5" s="10">
+        <v>22.7</v>
       </c>
       <c r="D5" s="4">
-        <v>19.600000000000001</v>
+        <v>22.7</v>
       </c>
       <c r="E5" s="4">
-        <v>19.5</v>
+        <v>22.8</v>
       </c>
       <c r="F5" s="4">
-        <f>20.8*1000</f>
         <v>20800</v>
       </c>
       <c r="G5" s="4">
         <v>3000</v>
       </c>
-      <c r="H5" s="17">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="I5" s="16">
-        <v>16.5</v>
+      <c r="H5" s="11">
+        <v>23.1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>18.399999999999999</v>
       </c>
       <c r="J5" s="4">
-        <v>16.2</v>
+        <v>18.3</v>
       </c>
       <c r="K5" s="4">
-        <v>15.5</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="L5" s="4">
         <v>13500</v>
@@ -4793,17 +4986,17 @@
       <c r="M5" s="4">
         <v>1500</v>
       </c>
-      <c r="N5" s="17">
-        <v>15.6</v>
-      </c>
-      <c r="O5" s="16">
-        <v>16.600000000000001</v>
+      <c r="N5" s="11">
+        <v>17.8</v>
+      </c>
+      <c r="O5" s="10">
+        <v>18.600000000000001</v>
       </c>
       <c r="P5" s="4">
-        <v>14.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="Q5" s="4">
-        <v>14.7</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="R5" s="4">
         <v>13200</v>
@@ -4812,162 +5005,216 @@
         <v>1500</v>
       </c>
       <c r="T5" s="17">
-        <v>14.8</v>
+        <v>17.7</v>
+      </c>
+      <c r="U5" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="V5" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="W5" s="17">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="X5" s="39">
+        <v>7600</v>
+      </c>
+      <c r="Y5" s="17">
+        <v>1500</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>0.48199999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:26">
+      <c r="A6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16">
-        <v>739.1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>990.3</v>
-      </c>
-      <c r="E6" s="4">
-        <v>9098.2999999999993</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3207.7</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1713.9</v>
-      </c>
-      <c r="H6" s="17">
-        <v>1618</v>
-      </c>
-      <c r="I6" s="16">
-        <v>417.7</v>
+      <c r="C6" s="19">
+        <v>731.4</v>
+      </c>
+      <c r="D6" s="20">
+        <v>977.3</v>
+      </c>
+      <c r="E6" s="20">
+        <v>8778.2000000000007</v>
+      </c>
+      <c r="F6" s="20">
+        <v>3196.8</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1765.7</v>
+      </c>
+      <c r="H6" s="21">
+        <v>1558.3</v>
+      </c>
+      <c r="I6" s="10">
+        <v>426.4</v>
       </c>
       <c r="J6" s="4">
-        <v>627.1</v>
+        <v>615.9</v>
       </c>
       <c r="K6" s="4">
-        <v>6883</v>
+        <v>6787.3</v>
       </c>
       <c r="L6" s="4">
-        <v>3041.3</v>
+        <v>3061.9</v>
       </c>
       <c r="M6" s="4">
-        <v>1156.3</v>
-      </c>
-      <c r="N6" s="17">
-        <v>1224.3</v>
-      </c>
-      <c r="O6" s="16">
-        <v>415.5</v>
+        <v>1249.5999999999999</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1131.5999999999999</v>
+      </c>
+      <c r="O6" s="10">
+        <v>404.6</v>
       </c>
       <c r="P6" s="4">
-        <v>776.1</v>
+        <v>701.4</v>
       </c>
       <c r="Q6" s="4">
-        <v>4246.3999999999996</v>
+        <v>3921.5</v>
       </c>
       <c r="R6" s="4">
-        <v>2785.5</v>
+        <v>2568.6</v>
       </c>
       <c r="S6" s="4">
-        <v>1097.9000000000001</v>
+        <v>1174.4000000000001</v>
       </c>
       <c r="T6" s="17">
-        <v>1195.8</v>
+        <v>1149.7</v>
+      </c>
+      <c r="U6" s="31">
+        <v>29</v>
+      </c>
+      <c r="V6" s="25">
+        <v>53.2</v>
+      </c>
+      <c r="W6" s="25">
+        <v>218.98</v>
+      </c>
+      <c r="X6" s="25">
+        <v>1666</v>
+      </c>
+      <c r="Y6" s="25">
+        <v>313.89999999999998</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>54.5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:26">
+      <c r="A7" s="34"/>
+      <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="16">
-        <v>738.1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>986.67</v>
-      </c>
-      <c r="E7" s="4">
-        <v>448.1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3186.6</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1293.8</v>
-      </c>
-      <c r="H7" s="17">
-        <v>1610.7</v>
-      </c>
-      <c r="I7" s="16">
-        <v>418.3</v>
+      <c r="C7" s="19">
+        <v>730.7</v>
+      </c>
+      <c r="D7" s="20">
+        <v>976.3</v>
+      </c>
+      <c r="E7" s="38">
+        <v>450.9</v>
+      </c>
+      <c r="F7" s="20">
+        <v>3183.4</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1281.4000000000001</v>
+      </c>
+      <c r="H7" s="21">
+        <v>1553.3</v>
+      </c>
+      <c r="I7" s="10">
+        <v>426.5</v>
       </c>
       <c r="J7" s="4">
-        <v>624.9</v>
-      </c>
-      <c r="K7" s="4">
-        <v>2547.1999999999998</v>
+        <v>613.70000000000005</v>
+      </c>
+      <c r="K7" s="38">
+        <v>2542.6</v>
       </c>
       <c r="L7" s="4">
-        <v>3025.5</v>
+        <v>3044.6</v>
       </c>
       <c r="M7" s="4">
-        <v>767.6</v>
-      </c>
-      <c r="N7" s="17">
-        <v>1218.0999999999999</v>
-      </c>
-      <c r="O7" s="16">
-        <v>419.7</v>
+        <v>793.6</v>
+      </c>
+      <c r="N7" s="11">
+        <v>1126.5</v>
+      </c>
+      <c r="O7" s="10">
+        <v>411</v>
       </c>
       <c r="P7" s="4">
-        <v>769.6</v>
+        <v>698.7</v>
       </c>
       <c r="Q7" s="4">
-        <v>4200.6000000000004</v>
+        <v>3900.3</v>
       </c>
       <c r="R7" s="4">
-        <v>2751.1</v>
+        <v>2555.7600000000002</v>
       </c>
       <c r="S7" s="4">
-        <v>709.7</v>
+        <v>719.5</v>
       </c>
       <c r="T7" s="17">
-        <v>1183.8</v>
+        <v>1143.8</v>
+      </c>
+      <c r="U7" s="31">
+        <v>29.5</v>
+      </c>
+      <c r="V7" s="25">
+        <v>53.2</v>
+      </c>
+      <c r="W7" s="25">
+        <v>219</v>
+      </c>
+      <c r="X7" s="25">
+        <v>1666.1</v>
+      </c>
+      <c r="Y7" s="25">
+        <v>314</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>54.6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:26">
+      <c r="A8" s="34"/>
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="16">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="C8" s="19">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D8" s="20">
+        <v>17.7</v>
+      </c>
+      <c r="E8" s="20">
+        <v>17.7</v>
+      </c>
+      <c r="F8" s="20">
         <v>20800</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="20">
         <v>3000</v>
       </c>
-      <c r="H8" s="17">
-        <v>15</v>
-      </c>
-      <c r="I8" s="16">
-        <v>12.2</v>
+      <c r="H8" s="21">
+        <v>18</v>
+      </c>
+      <c r="I8" s="10">
+        <v>16.600000000000001</v>
       </c>
       <c r="J8" s="4">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="K8" s="4">
-        <v>11.3</v>
+        <v>15.9</v>
       </c>
       <c r="L8" s="4">
         <v>20800</v>
@@ -4975,17 +5222,17 @@
       <c r="M8" s="4">
         <v>1500</v>
       </c>
-      <c r="N8" s="17">
-        <v>11.3</v>
-      </c>
-      <c r="O8" s="16">
-        <v>13.4</v>
+      <c r="N8" s="11">
+        <v>16.3</v>
+      </c>
+      <c r="O8" s="10">
+        <v>17.7</v>
       </c>
       <c r="P8" s="4">
-        <v>10.8</v>
+        <v>15.5</v>
       </c>
       <c r="Q8" s="4">
-        <v>10.7</v>
+        <v>15.5</v>
       </c>
       <c r="R8" s="4">
         <v>12000</v>
@@ -4994,134 +5241,188 @@
         <v>1500</v>
       </c>
       <c r="T8" s="17">
-        <v>10.8</v>
+        <v>16</v>
+      </c>
+      <c r="U8" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="V8" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="W8" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="X8" s="25">
+        <v>7600</v>
+      </c>
+      <c r="Y8" s="25">
+        <v>1500</v>
+      </c>
+      <c r="Z8" s="21">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" ht="14.1">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="16">
-        <v>1369.9</v>
+      <c r="C9" s="10">
+        <v>1245.8</v>
       </c>
       <c r="D9" s="4">
-        <v>1367.6</v>
+        <v>1236.5999999999999</v>
       </c>
       <c r="E9" s="4">
-        <v>75.2</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="F9" s="4">
-        <v>8598.6</v>
+        <v>7976.6</v>
       </c>
       <c r="G9" s="4">
-        <v>2270.5</v>
-      </c>
-      <c r="H9" s="17">
-        <v>13.2</v>
-      </c>
-      <c r="I9" s="16">
-        <v>839.9</v>
+        <v>2439.9</v>
+      </c>
+      <c r="H9" s="11">
+        <v>12.3</v>
+      </c>
+      <c r="I9" s="10">
+        <v>771.524</v>
       </c>
       <c r="J9" s="4">
-        <v>1435.3</v>
+        <v>1161.5999999999999</v>
       </c>
       <c r="K9" s="4">
-        <v>326.39999999999998</v>
+        <v>287.12599999999998</v>
       </c>
       <c r="L9" s="4">
-        <v>8125.8</v>
+        <v>7271.94</v>
       </c>
       <c r="M9" s="4">
-        <v>1788.9</v>
-      </c>
-      <c r="N9" s="17">
-        <v>5.2</v>
-      </c>
-      <c r="O9" s="16">
-        <v>904</v>
+        <v>1625.307</v>
+      </c>
+      <c r="N9" s="11">
+        <v>21.37</v>
+      </c>
+      <c r="O9" s="10">
+        <v>822.61800000000005</v>
       </c>
       <c r="P9" s="4">
-        <v>1372.4</v>
+        <v>1421.6189999999999</v>
       </c>
       <c r="Q9" s="4">
-        <v>255.3</v>
+        <v>253.43199999999999</v>
       </c>
       <c r="R9" s="4">
-        <v>6658.8</v>
+        <v>6529.7259999999997</v>
       </c>
       <c r="S9" s="4">
-        <v>1746.1</v>
+        <v>1532.1279999999999</v>
       </c>
       <c r="T9" s="17">
-        <v>3.3</v>
+        <v>1.8</v>
+      </c>
+      <c r="U9" s="31">
+        <v>55.5</v>
+      </c>
+      <c r="V9" s="25">
+        <v>149.06299999999999</v>
+      </c>
+      <c r="W9" s="25">
+        <v>473</v>
+      </c>
+      <c r="X9" s="25">
+        <v>3749.6</v>
+      </c>
+      <c r="Y9" s="25">
+        <v>993.6</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>136.261</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="18">
-        <v>2571.9</v>
-      </c>
-      <c r="D10" s="19">
-        <v>7548.9</v>
-      </c>
-      <c r="E10" s="19">
-        <v>22969.599999999999</v>
-      </c>
-      <c r="F10" s="19">
-        <v>17039.599999999999</v>
-      </c>
-      <c r="G10" s="19">
-        <v>5412.9</v>
-      </c>
-      <c r="H10" s="20">
-        <v>5316.4</v>
-      </c>
-      <c r="I10" s="18">
-        <v>3587.2</v>
-      </c>
-      <c r="J10" s="19">
-        <v>6271.1</v>
-      </c>
-      <c r="K10" s="19">
-        <v>47605.1</v>
-      </c>
-      <c r="L10" s="19">
-        <v>16341.4</v>
-      </c>
-      <c r="M10" s="19">
-        <v>4351</v>
-      </c>
-      <c r="N10" s="20">
-        <v>10197.1</v>
-      </c>
-      <c r="O10" s="18">
-        <v>1682.4</v>
-      </c>
-      <c r="P10" s="19">
-        <v>5802.2</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>10149.4</v>
-      </c>
-      <c r="R10" s="19">
-        <v>13706.2</v>
-      </c>
-      <c r="S10" s="19">
-        <v>4404.8999999999996</v>
-      </c>
-      <c r="T10" s="20">
-        <v>3029.4</v>
+      <c r="C10" s="22">
+        <v>2547.1999999999998</v>
+      </c>
+      <c r="D10" s="23">
+        <v>7557.9</v>
+      </c>
+      <c r="E10" s="23">
+        <v>22580.6</v>
+      </c>
+      <c r="F10" s="23">
+        <v>17957.5</v>
+      </c>
+      <c r="G10" s="23">
+        <v>5685.1</v>
+      </c>
+      <c r="H10" s="24">
+        <v>5585.1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>3445.7</v>
+      </c>
+      <c r="J10" s="13">
+        <v>6354.95</v>
+      </c>
+      <c r="K10" s="13">
+        <v>48315.96</v>
+      </c>
+      <c r="L10" s="13">
+        <v>16737.7</v>
+      </c>
+      <c r="M10" s="13">
+        <v>5278.9</v>
+      </c>
+      <c r="N10" s="14">
+        <v>10050.799999999999</v>
+      </c>
+      <c r="O10" s="12">
+        <v>1687.4</v>
+      </c>
+      <c r="P10" s="13">
+        <v>5970.3</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>11021.6</v>
+      </c>
+      <c r="R10" s="13">
+        <v>14502.9</v>
+      </c>
+      <c r="S10" s="13">
+        <v>3833.97</v>
+      </c>
+      <c r="T10" s="18">
+        <v>3589.88</v>
+      </c>
+      <c r="U10" s="26">
+        <v>45.3</v>
+      </c>
+      <c r="V10" s="27">
+        <v>193.2</v>
+      </c>
+      <c r="W10" s="27">
+        <v>311.39999999999998</v>
+      </c>
+      <c r="X10" s="27">
+        <v>5346.4</v>
+      </c>
+      <c r="Y10" s="27">
+        <v>1270.0999999999999</v>
+      </c>
+      <c r="Z10" s="28">
+        <v>288.89999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" ht="14.1">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -5129,7 +5430,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" ht="14.1">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5137,7 +5438,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" ht="14.1">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -5145,7 +5446,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" ht="14.1">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5153,7 +5454,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" ht="14.1">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -5161,7 +5462,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" ht="14.1">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -5169,7 +5470,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:8" ht="14.1">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -5177,7 +5478,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:8" ht="14.1">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -5185,7 +5486,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:8" ht="14.1">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -5193,7 +5494,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:8" ht="14.1">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -5201,7 +5502,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:8" ht="14.1">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -5209,7 +5510,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:8" ht="14.1">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -5217,7 +5518,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:8" ht="14.1">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -5225,7 +5526,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:8" ht="14.1">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -5233,7 +5534,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:8" ht="14.1">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -5241,7 +5542,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:8" ht="14.1">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -5249,7 +5550,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:8" ht="14.1">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -5257,7 +5558,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:8" ht="14.1">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -5265,7 +5566,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:8" ht="14.1">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -5273,7 +5574,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:8" ht="14.1">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -5281,7 +5582,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:8" ht="14.1">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -5289,7 +5590,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:8" ht="14.1">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -5297,7 +5598,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:8" ht="14.1">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -5305,7 +5606,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:8" ht="14.1">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -5313,7 +5614,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:8" ht="14.1">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -5321,7 +5622,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:8" ht="14.1">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -5329,7 +5630,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:8" ht="14.1">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -5337,7 +5638,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:8" ht="14.1">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -5345,7 +5646,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:8" ht="14.1">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -5353,7 +5654,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:8" ht="14.1">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -5361,7 +5662,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:8" ht="14.1">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -5369,7 +5670,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:8" ht="14.1">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -5377,7 +5678,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:8" ht="14.1">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -5385,7 +5686,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:8" ht="14.1">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5394,7 +5695,8 @@
       <c r="H44" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>Profiler Time(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,22 @@
   </si>
   <si>
     <t>mono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compared with Mono version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUA clock / Mono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profiler Time / Mono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profiler GC Alloc / Mono</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -534,6 +550,12 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,11 +574,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -597,11 +616,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -610,8 +629,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Profiler Time(ms)</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Profiler Time / Mono</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -630,11 +649,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -650,7 +669,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -660,13 +679,25 @@
             <c:v>sLua WIN</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -697,27 +728,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:f>Sheet1!$C$13:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>247.9</c:v>
+                  <c:v>8.7907801418439728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321.86</c:v>
+                  <c:v>5.1996768982229407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.05</c:v>
+                  <c:v>7.3310214759384318E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2675.3</c:v>
+                  <c:v>2.0633194508715103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>953.2</c:v>
+                  <c:v>3.5442849706254185</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.73</c:v>
+                  <c:v>6.9693572496263081E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -730,13 +761,25 @@
             <c:v>uLua WIN</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent4"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent4"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -767,27 +810,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$N$4</c:f>
+              <c:f>Sheet1!$I$13:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>183.5</c:v>
+                  <c:v>6.5070921985815602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>301</c:v>
+                  <c:v>4.8626817447495965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.82</c:v>
+                  <c:v>6.5827097402202342E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2637.8</c:v>
+                  <c:v>2.034397655406448</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>585.4</c:v>
+                  <c:v>2.1766936863240871</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2</c:v>
+                  <c:v>9.7159940209267562E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -800,38 +843,50 @@
             <c:v>toLua WIN</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent5"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$4:$T$4</c:f>
+              <c:f>Sheet1!$O$13:$T$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>160.1</c:v>
+                  <c:v>5.6773049645390072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>317.48</c:v>
+                  <c:v>5.1289176090468498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.9</c:v>
+                  <c:v>6.6313804222181666E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2221.0500000000002</c:v>
+                  <c:v>1.7129801018047204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>609.13</c:v>
+                  <c:v>2.2649289804417343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.81</c:v>
+                  <c:v>7.1188340807174885E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,38 +899,50 @@
             <c:v>sLua OSX</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$H$7</c:f>
+              <c:f>Sheet1!$C$16:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>730.7</c:v>
+                  <c:v>24.769491525423732</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>976.3</c:v>
+                  <c:v>18.351503759398494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>450.9</c:v>
+                  <c:v>2.058904109589041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3183.4</c:v>
+                  <c:v>1.9106896344757218</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1281.4000000000001</c:v>
+                  <c:v>4.0808917197452228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1553.3</c:v>
+                  <c:v>28.448717948717949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,38 +955,50 @@
             <c:v>uLua OSX</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$7:$N$7</c:f>
+              <c:f>Sheet1!$I$16:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>426.5</c:v>
+                  <c:v>14.457627118644067</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>613.70000000000005</c:v>
+                  <c:v>11.535714285714286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2542.6</c:v>
+                  <c:v>11.610045662100456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3044.6</c:v>
+                  <c:v>1.8273813096452793</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>793.6</c:v>
+                  <c:v>2.527388535031847</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1126.5</c:v>
+                  <c:v>20.631868131868131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,38 +1011,50 @@
             <c:v>toLua OSX</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent6"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent6"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$7:$T$7</c:f>
+              <c:f>Sheet1!$O$16:$T$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>411</c:v>
+                  <c:v>13.932203389830509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>698.7</c:v>
+                  <c:v>13.133458646616541</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3900.3</c:v>
+                  <c:v>17.80958904109589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2555.7600000000002</c:v>
+                  <c:v>1.5339775523678052</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>719.5</c:v>
+                  <c:v>2.2914012738853504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1143.8</c:v>
+                  <c:v>20.948717948717949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,28 +1068,29 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="-2137794464"/>
-        <c:axId val="-2137803168"/>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="-1013992816"/>
+        <c:axId val="-1013983024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2137794464"/>
+        <c:axId val="-1013992816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1025,30 +1117,20 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137803168"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="-1013983024"/>
+        <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137803168"/>
+        <c:axId val="-1013983024"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1080,7 +1162,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137794464"/>
+        <c:crossAx val="-1013992816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1093,7 +1175,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1182,11 +1264,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1195,12 +1277,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Profiler GC</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> Alloc(KB)</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Profiler GC Alloc / Mono</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1219,11 +1297,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1239,7 +1317,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1249,13 +1327,25 @@
             <c:v>sLua WIN</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1286,27 +1376,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:f>Sheet1!$C$14:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>22.7</c:v>
+                  <c:v>87.307692307692307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.7</c:v>
+                  <c:v>75.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.8</c:v>
+                  <c:v>62.295081967213115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20800</c:v>
+                  <c:v>2.736842105263158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.1</c:v>
+                  <c:v>47.925311203319509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,13 +1409,25 @@
             <c:v>uLua WIN</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent4"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent4"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1356,27 +1458,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$5:$N$5</c:f>
+              <c:f>Sheet1!$I$14:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>70.769230769230759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.3</c:v>
+                  <c:v>61.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>48.087431693989075</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13500</c:v>
+                  <c:v>1.7763157894736843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.8</c:v>
+                  <c:v>36.929460580912867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1389,38 +1491,50 @@
             <c:v>toLua WIN</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent5"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$5:$T$5</c:f>
+              <c:f>Sheet1!$O$14:$T$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>71.538461538461547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>57.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.100000000000001</c:v>
+                  <c:v>46.721311475409841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13200</c:v>
+                  <c:v>1.736842105263158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.7</c:v>
+                  <c:v>36.721991701244811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1433,38 +1547,50 @@
             <c:v>sLua OSX</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$H$8</c:f>
+              <c:f>Sheet1!$C$17:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.7</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.7</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20800</c:v>
+                  <c:v>2.736842105263158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1477,38 +1603,50 @@
             <c:v>uLua OSX</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$8:$N$8</c:f>
+              <c:f>Sheet1!$I$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16.600000000000001</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.5</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.9</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20800</c:v>
+                  <c:v>2.736842105263158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.3</c:v>
+                  <c:v>32.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,38 +1659,50 @@
             <c:v>toLua OSX</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent6"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent6"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$8:$T$8</c:f>
+              <c:f>Sheet1!$O$17:$T$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17.7</c:v>
+                  <c:v>88.499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.5</c:v>
+                  <c:v>51.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.5</c:v>
+                  <c:v>51.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12000</c:v>
+                  <c:v>1.5789473684210527</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1566,28 +1716,29 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="-2137802624"/>
-        <c:axId val="-2137802080"/>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="-1013989552"/>
+        <c:axId val="-1013992272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2137802624"/>
+        <c:axId val="-1013989552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1614,30 +1765,20 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137802080"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="-1013992272"/>
+        <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137802080"/>
+        <c:axId val="-1013992272"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1669,7 +1810,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2137802624"/>
+        <c:crossAx val="-1013989552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1682,7 +1823,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1771,11 +1912,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1784,8 +1925,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>LUA Clock(ms)</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>LUA Clock / Mono (Win)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1804,11 +1945,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1824,7 +1965,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1834,13 +1975,25 @@
             <c:v>sLua WIN</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1871,27 +2024,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$H$3</c:f>
+              <c:f>Sheet1!$C$12:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>242</c:v>
+                  <c:v>8.790410461314929</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>318</c:v>
+                  <c:v>5.112540192926045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.99</c:v>
+                  <c:v>5.4770318021201421E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2672</c:v>
+                  <c:v>2.0610922554767046</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>950</c:v>
+                  <c:v>3.5660660660660666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2.3320895522388058E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,13 +2057,25 @@
             <c:v>uLua WIN</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent4"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent4"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1941,27 +2106,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$N$3</c:f>
+              <c:f>Sheet1!$I$12:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>193</c:v>
+                  <c:v>7.0105339629495091</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>292</c:v>
+                  <c:v>4.694533762057878</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>5.4831241623004755E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2635</c:v>
+                  <c:v>2.0325516815797591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>580</c:v>
+                  <c:v>2.1771771771771773</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2.3320895522388058E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,498 +2139,55 @@
             <c:v>toLua WIN</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$T$3</c:f>
+              <c:f>Sheet1!$O$12:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>148</c:v>
+                  <c:v>5.3759535052669811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>313</c:v>
+                  <c:v>5.032154340836013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.2184720360667724E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2219</c:v>
+                  <c:v>1.7116630669546435</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606</c:v>
+                  <c:v>2.2747747747747749</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>sLua Android</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$2:$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>test1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>test4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>test5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>test6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$9:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1245.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1236.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7976.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2439.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>uLua Android</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$2:$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>test1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>test4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>test5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>test6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$9:$N$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>771.524</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1161.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>287.12599999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7271.94</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1625.307</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>toLua Android</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$O$9:$T$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>822.61800000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1421.6189999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>253.43199999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6529.7259999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1532.1279999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>sLua OSX</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$6:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>731.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>977.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8778.2000000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3196.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1765.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1558.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>uLua OSX</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$6:$N$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>426.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>615.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6787.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3061.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1249.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1131.5999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>toLua OSX</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$O$6:$T$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>404.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>701.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3921.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2568.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1174.4000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1149.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>sLua iOS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$10:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2547.1999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7557.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22580.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17957.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5685.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5585.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:v>uLua iOS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$10:$N$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3445.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6354.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48315.96</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16737.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5278.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10050.799999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:v>toLua iOS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$O$10:$T$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1687.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5970.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11021.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14502.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3833.97</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3589.88</c:v>
+                  <c:v>2.3320895522388058E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2479,28 +2201,29 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="-1904293872"/>
-        <c:axId val="-1904294416"/>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="-1013994992"/>
+        <c:axId val="-1013987920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1904293872"/>
+        <c:axId val="-1013994992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2527,30 +2250,20 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1904294416"/>
-        <c:crossesAt val="0.1"/>
+        <c:crossAx val="-1013987920"/>
+        <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1904294416"/>
+        <c:axId val="-1013987920"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2582,7 +2295,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1904293872"/>
+        <c:crossAx val="-1013994992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2595,7 +2308,1373 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LUA Clock / Mono (OSX)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>sLua OSX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent6"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent6"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25.220689655172414</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.370300751879697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.086765914695413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9188475390156063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6250398215992359</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.592660550458714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>uLua OSX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$15:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14.703448275862069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.577067669172932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.995068042743632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8378751500600241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9808856323669959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.763302752293576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>toLua OSX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$15:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.951724137931036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.184210526315788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.908028130422871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5417767106842737</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7413188913666779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.095412844036698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="-781144992"/>
+        <c:axId val="-781154784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-781144992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-781154784"/>
+        <c:crossesAt val="1"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-781154784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-781144992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LUA Clock</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> / Mono (iOS)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>sLua iOS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent5"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.446846846846846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2958212299497536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14186046511627906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1273202474930661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4556159420289854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0267941670764199E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>uLua iOS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.901333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7926782635529941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6070317124735729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9393908683592915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6357759661835749</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1568313750816448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>toLua iOS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$18:$T$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14.821945945945947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5370346766132439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53579704016913321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7414460209088969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5419967793880835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3209942683526469E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="-744390880"/>
+        <c:axId val="-744390336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-744390880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-744390336"/>
+        <c:crossesAt val="1"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-744390336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-744390880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LUA Clock / Mono (Android)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>sLua Android</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>test1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>test6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.446846846846846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2958212299497536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14186046511627906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1273202474930661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4556159420289854</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0267941670764199E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>uLua Android</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>test1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>test6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.901333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7926782635529941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6070317124735729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9393908683592915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6357759661835749</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1568313750816448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>toLua Android</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$18:$T$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14.821945945945947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5370346766132439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53579704016913321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7414460209088969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5419967793880835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3209942683526469E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="-744394688"/>
+        <c:axId val="-744393056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-744394688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-744393056"/>
+        <c:crossesAt val="1"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-744393056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-744394688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2783,8 +3862,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2795,7 +3994,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2808,6 +4007,29 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -2819,29 +4041,6 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2885,32 +4084,70 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -2922,33 +4159,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2970,15 +4203,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2988,7 +4219,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2997,14 +4228,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3013,10 +4243,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3032,14 +4262,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3051,31 +4281,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -3084,17 +4307,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3103,29 +4325,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3135,6 +4338,24 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
@@ -3153,7 +4374,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3161,7 +4382,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3181,10 +4402,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3201,11 +4422,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3214,14 +4435,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3242,20 +4462,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3276,20 +4495,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3300,7 +4513,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3313,6 +4526,29 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -3324,29 +4560,6 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3390,32 +4603,70 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -3427,33 +4678,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3475,15 +4722,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3493,7 +4738,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3502,14 +4747,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3518,10 +4762,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3537,14 +4781,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3556,31 +4800,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -3589,17 +4826,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3608,29 +4844,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3640,6 +4857,24 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
@@ -3658,7 +4893,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3666,7 +4901,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3686,10 +4921,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3706,11 +4941,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3719,14 +4954,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3747,20 +4981,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3781,20 +5014,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3805,7 +5032,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3818,6 +5045,29 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -3829,29 +5079,6 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3895,32 +5122,70 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -3932,33 +5197,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3980,15 +5241,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3998,7 +5257,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4007,14 +5266,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4023,10 +5281,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -4042,14 +5300,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4061,31 +5319,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -4094,17 +5345,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4113,29 +5363,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -4145,6 +5376,24 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
@@ -4163,7 +5412,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -4171,7 +5420,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4191,10 +5440,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -4211,11 +5460,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4224,14 +5473,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4252,20 +5500,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4286,14 +5533,1565 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
       <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4302,16 +7100,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>116463</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>125988</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4333,15 +7131,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>102462</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>169137</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4364,16 +7162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>111498</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>106512</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4389,6 +7187,102 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>126754</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>78121</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>69431</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>2928</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4662,8 +7556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="Y48" sqref="Y48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -4679,44 +7573,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="33" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" thickBot="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -4791,7 +7685,7 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -4871,7 +7765,7 @@
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="34"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -4938,7 +7832,7 @@
       <c r="W4" s="17">
         <v>164.37</v>
       </c>
-      <c r="X4" s="39">
+      <c r="X4" s="33">
         <v>1296.5999999999999</v>
       </c>
       <c r="Y4" s="17">
@@ -4949,7 +7843,7 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -5016,7 +7910,7 @@
       <c r="W5" s="17">
         <v>0.36599999999999999</v>
       </c>
-      <c r="X5" s="39">
+      <c r="X5" s="33">
         <v>7600</v>
       </c>
       <c r="Y5" s="17">
@@ -5027,7 +7921,7 @@
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -5107,7 +8001,7 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="34"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
@@ -5117,7 +8011,7 @@
       <c r="D7" s="20">
         <v>976.3</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="32">
         <v>450.9</v>
       </c>
       <c r="F7" s="20">
@@ -5135,7 +8029,7 @@
       <c r="J7" s="4">
         <v>613.70000000000005</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="32">
         <v>2542.6</v>
       </c>
       <c r="L7" s="4">
@@ -5185,7 +8079,7 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="34"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
@@ -5262,7 +8156,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.1">
+    <row r="9" spans="1:26">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -5342,7 +8236,7 @@
         <v>136.261</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" thickBot="1">
+    <row r="10" spans="1:26" ht="14.25" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -5422,79 +8316,669 @@
         <v>288.89999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.1">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+    <row r="11" spans="1:26" ht="14.25" thickBot="1">
+      <c r="A11" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
     </row>
-    <row r="12" spans="1:26" ht="14.1">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+    <row r="12" spans="1:26">
+      <c r="A12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7">
+        <f>C3/U3</f>
+        <v>8.790410461314929</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" ref="D12:H19" si="0">D3/V3</f>
+        <v>5.112540192926045</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>5.4770318021201421E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0610922554767046</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>3.5660660660660666</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>2.3320895522388058E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <f>I3/U3</f>
+        <v>7.0105339629495091</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" ref="J12:N12" si="1">J3/V3</f>
+        <v>4.694533762057878</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="1"/>
+        <v>5.4831241623004755E-2</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0325516815797591</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="1"/>
+        <v>2.1771771771771773</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="1"/>
+        <v>2.3320895522388058E-2</v>
+      </c>
+      <c r="O12" s="7">
+        <f>O3/U3</f>
+        <v>5.3759535052669811</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" ref="P12:T12" si="2">P3/V3</f>
+        <v>5.032154340836013</v>
+      </c>
+      <c r="Q12" s="8">
+        <f t="shared" si="2"/>
+        <v>1.2184720360667724E-2</v>
+      </c>
+      <c r="R12" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7116630669546435</v>
+      </c>
+      <c r="S12" s="8">
+        <f t="shared" si="2"/>
+        <v>2.2747747747747749</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" si="2"/>
+        <v>2.3320895522388058E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" ht="14.1">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+    <row r="13" spans="1:26">
+      <c r="A13" s="36"/>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" ref="C13:C19" si="3">C4/U4</f>
+        <v>8.7907801418439728</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>5.1996768982229407</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3310214759384318E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0633194508715103</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5442849706254185</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="0"/>
+        <v>6.9693572496263081E-2</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" ref="I13:I19" si="4">I4/U4</f>
+        <v>6.5070921985815602</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" ref="J13:J19" si="5">J4/V4</f>
+        <v>4.8626817447495965</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" ref="K13:K19" si="6">K4/W4</f>
+        <v>6.5827097402202342E-2</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" ref="L13:L19" si="7">L4/X4</f>
+        <v>2.034397655406448</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" ref="M13:M19" si="8">M4/Y4</f>
+        <v>2.1766936863240871</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" ref="N13:N19" si="9">N4/Z4</f>
+        <v>9.7159940209267562E-2</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" ref="O13:O19" si="10">O4/U4</f>
+        <v>5.6773049645390072</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" ref="P13:P19" si="11">P4/V4</f>
+        <v>5.1289176090468498</v>
+      </c>
+      <c r="Q13" s="4">
+        <f t="shared" ref="Q13:Q19" si="12">Q4/W4</f>
+        <v>6.6313804222181666E-2</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" ref="R13:R19" si="13">R4/X4</f>
+        <v>1.7129801018047204</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" ref="S13:S19" si="14">S4/Y4</f>
+        <v>2.2649289804417343</v>
+      </c>
+      <c r="T13" s="11">
+        <f t="shared" ref="T13:T19" si="15">T4/Z4</f>
+        <v>7.1188340807174885E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="14.1">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+    <row r="14" spans="1:26">
+      <c r="A14" s="36"/>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" si="3"/>
+        <v>87.307692307692307</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>75.666666666666671</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>62.295081967213115</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>2.736842105263158</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="0"/>
+        <v>47.925311203319509</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="4"/>
+        <v>70.769230769230759</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="5"/>
+        <v>61.000000000000007</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="6"/>
+        <v>48.087431693989075</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="7"/>
+        <v>1.7763157894736843</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="9"/>
+        <v>36.929460580912867</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="10"/>
+        <v>71.538461538461547</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="11"/>
+        <v>57.000000000000007</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="shared" si="12"/>
+        <v>46.721311475409841</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="13"/>
+        <v>1.736842105263158</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T14" s="11">
+        <f t="shared" si="15"/>
+        <v>36.721991701244811</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="14.1">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+    <row r="15" spans="1:26">
+      <c r="A15" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" si="3"/>
+        <v>25.220689655172414</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>18.370300751879697</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>40.086765914695413</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9188475390156063</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6250398215992359</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="0"/>
+        <v>28.592660550458714</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="4"/>
+        <v>14.703448275862069</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="5"/>
+        <v>11.577067669172932</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="6"/>
+        <v>30.995068042743632</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="7"/>
+        <v>1.8378751500600241</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="8"/>
+        <v>3.9808856323669959</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="9"/>
+        <v>20.763302752293576</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="10"/>
+        <v>13.951724137931036</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="11"/>
+        <v>13.184210526315788</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="12"/>
+        <v>17.908028130422871</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="13"/>
+        <v>1.5417767106842737</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="14"/>
+        <v>3.7413188913666779</v>
+      </c>
+      <c r="T15" s="11">
+        <f t="shared" si="15"/>
+        <v>21.095412844036698</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="14.1">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+    <row r="16" spans="1:26">
+      <c r="A16" s="36"/>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10">
+        <f t="shared" si="3"/>
+        <v>24.769491525423732</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>18.351503759398494</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>2.058904109589041</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9106896344757218</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0808917197452228</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="0"/>
+        <v>28.448717948717949</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="4"/>
+        <v>14.457627118644067</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="5"/>
+        <v>11.535714285714286</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="6"/>
+        <v>11.610045662100456</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="7"/>
+        <v>1.8273813096452793</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="8"/>
+        <v>2.527388535031847</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="9"/>
+        <v>20.631868131868131</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="10"/>
+        <v>13.932203389830509</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="11"/>
+        <v>13.133458646616541</v>
+      </c>
+      <c r="Q16" s="4">
+        <f t="shared" si="12"/>
+        <v>17.80958904109589</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="13"/>
+        <v>1.5339775523678052</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="14"/>
+        <v>2.2914012738853504</v>
+      </c>
+      <c r="T16" s="11">
+        <f t="shared" si="15"/>
+        <v>20.948717948717949</v>
+      </c>
     </row>
-    <row r="17" spans="3:8" ht="14.1">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+    <row r="17" spans="1:20">
+      <c r="A17" s="36"/>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>2.736842105263158</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="7"/>
+        <v>2.736842105263158</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="9"/>
+        <v>32.6</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="10"/>
+        <v>88.499999999999986</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="11"/>
+        <v>51.666666666666671</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="12"/>
+        <v>51.666666666666671</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="13"/>
+        <v>1.5789473684210527</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T17" s="11">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="18" spans="3:8" ht="14.1">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+    <row r="18" spans="1:20">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" si="3"/>
+        <v>22.446846846846846</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>8.2958212299497536</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14186046511627906</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1273202474930661</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4556159420289854</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="0"/>
+        <v>9.0267941670764199E-2</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="4"/>
+        <v>13.901333333333334</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="5"/>
+        <v>7.7926782635529941</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="6"/>
+        <v>0.6070317124735729</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="7"/>
+        <v>1.9393908683592915</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="8"/>
+        <v>1.6357759661835749</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="9"/>
+        <v>0.1568313750816448</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="10"/>
+        <v>14.821945945945947</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="11"/>
+        <v>9.5370346766132439</v>
+      </c>
+      <c r="Q18" s="4">
+        <f t="shared" si="12"/>
+        <v>0.53579704016913321</v>
+      </c>
+      <c r="R18" s="4">
+        <f t="shared" si="13"/>
+        <v>1.7414460209088969</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="14"/>
+        <v>1.5419967793880835</v>
+      </c>
+      <c r="T18" s="11">
+        <f t="shared" si="15"/>
+        <v>1.3209942683526469E-2</v>
+      </c>
     </row>
-    <row r="19" spans="3:8" ht="14.1">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+    <row r="19" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" si="3"/>
+        <v>56.229580573951438</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="0"/>
+        <v>39.119565217391305</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="0"/>
+        <v>72.513166345536291</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="0"/>
+        <v>3.3588021846476135</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="0"/>
+        <v>4.476104243760334</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="0"/>
+        <v>19.332294911734166</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="4"/>
+        <v>76.064017660044158</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="5"/>
+        <v>32.893115942028984</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="6"/>
+        <v>155.15722543352601</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="7"/>
+        <v>3.1306486607810866</v>
+      </c>
+      <c r="M19" s="13">
+        <f t="shared" si="8"/>
+        <v>4.1562869065427916</v>
+      </c>
+      <c r="N19" s="14">
+        <f t="shared" si="9"/>
+        <v>34.789892696434755</v>
+      </c>
+      <c r="O19" s="12">
+        <f t="shared" si="10"/>
+        <v>37.249448123620311</v>
+      </c>
+      <c r="P19" s="13">
+        <f t="shared" si="11"/>
+        <v>30.90217391304348</v>
+      </c>
+      <c r="Q19" s="13">
+        <f t="shared" si="12"/>
+        <v>35.393705844572899</v>
+      </c>
+      <c r="R19" s="13">
+        <f t="shared" si="13"/>
+        <v>2.7126477629806973</v>
+      </c>
+      <c r="S19" s="13">
+        <f t="shared" si="14"/>
+        <v>3.0186363278482009</v>
+      </c>
+      <c r="T19" s="14">
+        <f t="shared" si="15"/>
+        <v>12.426029768085844</v>
+      </c>
     </row>
-    <row r="20" spans="3:8" ht="14.1">
+    <row r="20" spans="1:20">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -5502,7 +8986,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="3:8" ht="14.1">
+    <row r="21" spans="1:20">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -5510,7 +8994,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="3:8" ht="14.1">
+    <row r="22" spans="1:20">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -5518,7 +9002,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="3:8" ht="14.1">
+    <row r="23" spans="1:20">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -5526,7 +9010,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="3:8" ht="14.1">
+    <row r="24" spans="1:20">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -5534,7 +9018,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="3:8" ht="14.1">
+    <row r="25" spans="1:20">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -5542,7 +9026,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="3:8" ht="14.1">
+    <row r="26" spans="1:20">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -5550,7 +9034,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="3:8" ht="14.1">
+    <row r="27" spans="1:20">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -5558,7 +9042,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="3:8" ht="14.1">
+    <row r="28" spans="1:20">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -5566,7 +9050,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="3:8" ht="14.1">
+    <row r="29" spans="1:20">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -5574,7 +9058,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="3:8" ht="14.1">
+    <row r="30" spans="1:20">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -5582,7 +9066,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="3:8" ht="14.1">
+    <row r="31" spans="1:20">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -5590,7 +9074,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="3:8" ht="14.1">
+    <row r="32" spans="1:20">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -5598,7 +9082,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="3:8" ht="14.1">
+    <row r="33" spans="3:8">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -5606,7 +9090,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="3:8" ht="14.1">
+    <row r="34" spans="3:8">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -5614,7 +9098,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="3:8" ht="14.1">
+    <row r="35" spans="3:8">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -5622,7 +9106,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="3:8" ht="14.1">
+    <row r="36" spans="3:8">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -5630,7 +9114,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="3:8" ht="14.1">
+    <row r="37" spans="3:8">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -5638,7 +9122,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="3:8" ht="14.1">
+    <row r="38" spans="3:8">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -5646,7 +9130,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="3:8" ht="14.1">
+    <row r="39" spans="3:8">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -5654,7 +9138,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="3:8" ht="14.1">
+    <row r="40" spans="3:8">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -5662,7 +9146,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="3:8" ht="14.1">
+    <row r="41" spans="3:8">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -5670,7 +9154,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="3:8" ht="14.1">
+    <row r="42" spans="3:8">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -5678,7 +9162,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="3:8" ht="14.1">
+    <row r="43" spans="3:8">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -5686,7 +9170,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="3:8" ht="14.1">
+    <row r="44" spans="3:8">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5695,7 +9179,10 @@
       <c r="H44" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A11:Z11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="U1:Z1"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="A3:A5"/>

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="4125" yWindow="9885" windowWidth="21585" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw data" sheetId="2" r:id="rId1"/>
+    <sheet name="average data" sheetId="3" r:id="rId2"/>
+    <sheet name="normalized data" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="35">
   <si>
     <t>Profiler Time(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Compared with Mono version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LUA clock / Mono</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +114,58 @@
     <t>Profiler GC Alloc / Mono</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSX Editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +175,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,29 +198,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -213,37 +250,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -406,19 +412,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -444,16 +437,237 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,10 +683,19 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -490,77 +713,17 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -571,15 +734,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -702,7 +996,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$H$2</c:f>
+              <c:f>'average data'!$C$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -728,28 +1022,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$H$13</c:f>
+              <c:f>'normalized data'!$C$2:$H$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8.7907801418439728</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.1996768982229407</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.3310214759384318E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0633194508715103</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5442849706254185</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.9693572496263081E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -784,7 +1060,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$H$2</c:f>
+              <c:f>'average data'!$C$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -810,28 +1086,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$13:$N$13</c:f>
+              <c:f>'normalized data'!$I$2:$N$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>6.5070921985815602</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8626817447495965</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5827097402202342E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.034397655406448</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1766936863240871</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.7159940209267562E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -866,28 +1124,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$13:$T$13</c:f>
+              <c:f>'normalized data'!$O$2:$T$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.6773049645390072</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.1289176090468498</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6313804222181666E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7129801018047204</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2649289804417343</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.1188340807174885E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -922,28 +1162,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$H$16</c:f>
+              <c:f>'normalized data'!$C$5:$H$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>24.769491525423732</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.351503759398494</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.058904109589041</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9106896344757218</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0808917197452228</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.448717948717949</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -978,28 +1200,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$16:$N$16</c:f>
+              <c:f>'normalized data'!$I$5:$N$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>14.457627118644067</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.535714285714286</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.610045662100456</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8273813096452793</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.527388535031847</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.631868131868131</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1034,28 +1238,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$16:$T$16</c:f>
+              <c:f>'normalized data'!$O$5:$T$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>13.932203389830509</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.133458646616541</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.80958904109589</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5339775523678052</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2914012738853504</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.948717948717949</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1070,11 +1256,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="-1013992816"/>
-        <c:axId val="-1013983024"/>
+        <c:axId val="-1369390144"/>
+        <c:axId val="-1369390688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1013992816"/>
+        <c:axId val="-1369390144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,7 +1303,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1013983024"/>
+        <c:crossAx val="-1369390688"/>
         <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1125,13 +1311,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1013983024"/>
+        <c:axId val="-1369390688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1162,7 +1348,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1013992816"/>
+        <c:crossAx val="-1369390144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1350,7 +1536,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$H$2</c:f>
+              <c:f>'average data'!$C$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1376,28 +1562,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$H$14</c:f>
+              <c:f>'normalized data'!$C$3:$H$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>87.307692307692307</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62.295081967213115</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.736842105263158</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47.925311203319509</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1432,7 +1600,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$H$2</c:f>
+              <c:f>'average data'!$C$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1458,28 +1626,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$14:$N$14</c:f>
+              <c:f>'normalized data'!$I$3:$N$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>70.769230769230759</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48.087431693989075</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7763157894736843</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36.929460580912867</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1514,28 +1664,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$14:$T$14</c:f>
+              <c:f>'normalized data'!$O$3:$T$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>71.538461538461547</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>46.721311475409841</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.736842105263158</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36.721991701244811</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1570,28 +1702,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$17:$H$17</c:f>
+              <c:f>'normalized data'!$C$6:$H$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.736842105263158</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1626,28 +1740,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$17:$N$17</c:f>
+              <c:f>'normalized data'!$I$6:$N$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.736842105263158</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.6</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1682,28 +1778,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$17:$T$17</c:f>
+              <c:f>'normalized data'!$O$6:$T$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>88.499999999999986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5789473684210527</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1718,11 +1796,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="-1013989552"/>
-        <c:axId val="-1013992272"/>
+        <c:axId val="-1369380352"/>
+        <c:axId val="-1369383072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1013989552"/>
+        <c:axId val="-1369380352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1765,7 +1843,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1013992272"/>
+        <c:crossAx val="-1369383072"/>
         <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1773,13 +1851,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1013992272"/>
+        <c:axId val="-1369383072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1810,7 +1888,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1013989552"/>
+        <c:crossAx val="-1369380352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1998,7 +2076,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$H$2</c:f>
+              <c:f>'average data'!$C$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2024,28 +2102,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$12:$H$12</c:f>
+              <c:f>'normalized data'!$C$1:$H$1</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8.790410461314929</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.112540192926045</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4770318021201421E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0610922554767046</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5660660660660666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3320895522388058E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2080,7 +2140,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$H$2</c:f>
+              <c:f>'average data'!$C$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2106,28 +2166,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$12:$N$12</c:f>
+              <c:f>'normalized data'!$I$1:$N$1</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>7.0105339629495091</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.694533762057878</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4831241623004755E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0325516815797591</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1771771771771773</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3320895522388058E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2167,28 +2209,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$12:$T$12</c:f>
+              <c:f>'normalized data'!$O$1:$T$1</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.3759535052669811</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.032154340836013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2184720360667724E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7116630669546435</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2747747747747749</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3320895522388058E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2203,11 +2227,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="-1013994992"/>
-        <c:axId val="-1013987920"/>
+        <c:axId val="-1369389056"/>
+        <c:axId val="-1369386880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1013994992"/>
+        <c:axId val="-1369389056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,7 +2274,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1013987920"/>
+        <c:crossAx val="-1369386880"/>
         <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2258,13 +2282,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1013987920"/>
+        <c:axId val="-1369386880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2295,7 +2319,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1013994992"/>
+        <c:crossAx val="-1369389056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2483,28 +2507,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$15:$H$15</c:f>
+              <c:f>'normalized data'!$C$4:$H$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>25.220689655172414</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.370300751879697</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.086765914695413</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9188475390156063</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.6250398215992359</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.592660550458714</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2544,28 +2550,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$15:$N$15</c:f>
+              <c:f>'normalized data'!$I$4:$N$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>14.703448275862069</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.577067669172932</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.995068042743632</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8378751500600241</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.9808856323669959</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.763302752293576</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2605,28 +2593,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$15:$T$15</c:f>
+              <c:f>'normalized data'!$O$4:$T$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>13.951724137931036</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.184210526315788</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.908028130422871</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5417767106842737</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7413188913666779</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.095412844036698</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2641,11 +2611,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="-781144992"/>
-        <c:axId val="-781154784"/>
+        <c:axId val="-1369395584"/>
+        <c:axId val="-1369392320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-781144992"/>
+        <c:axId val="-1369395584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2688,7 +2658,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-781154784"/>
+        <c:crossAx val="-1369392320"/>
         <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2696,13 +2666,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-781154784"/>
+        <c:axId val="-1369392320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2733,7 +2703,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-781144992"/>
+        <c:crossAx val="-1369395584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2926,28 +2896,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$H$18</c:f>
+              <c:f>'normalized data'!$C$7:$H$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>22.446846846846846</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.2958212299497536</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14186046511627906</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1273202474930661</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4556159420289854</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.0267941670764199E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2987,28 +2939,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$18:$N$18</c:f>
+              <c:f>'normalized data'!$I$7:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>13.901333333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7926782635529941</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6070317124735729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9393908683592915</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6357759661835749</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1568313750816448</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3048,28 +2982,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$18:$T$18</c:f>
+              <c:f>'normalized data'!$O$7:$T$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>14.821945945945947</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.5370346766132439</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53579704016913321</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7414460209088969</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5419967793880835</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3209942683526469E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3084,11 +3000,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="-744390880"/>
-        <c:axId val="-744390336"/>
+        <c:axId val="-1369395040"/>
+        <c:axId val="-1369391776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-744390880"/>
+        <c:axId val="-1369395040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3131,7 +3047,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-744390336"/>
+        <c:crossAx val="-1369391776"/>
         <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3139,13 +3055,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-744390336"/>
+        <c:axId val="-1369391776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3176,7 +3092,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-744390880"/>
+        <c:crossAx val="-1369395040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3364,7 +3280,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$H$2</c:f>
+              <c:f>'average data'!$C$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3390,28 +3306,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$H$18</c:f>
+              <c:f>'normalized data'!$C$7:$H$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>22.446846846846846</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.2958212299497536</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14186046511627906</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1273202474930661</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4556159420289854</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.0267941670764199E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3446,7 +3344,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$H$2</c:f>
+              <c:f>'average data'!$C$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3472,28 +3370,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$18:$N$18</c:f>
+              <c:f>'normalized data'!$I$7:$N$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>13.901333333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7926782635529941</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6070317124735729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9393908683592915</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6357759661835749</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1568313750816448</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3533,28 +3413,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$18:$T$18</c:f>
+              <c:f>'normalized data'!$O$7:$T$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>14.821945945945947</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.5370346766132439</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53579704016913321</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7414460209088969</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5419967793880835</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3209942683526469E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3569,11 +3431,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="-744394688"/>
-        <c:axId val="-744393056"/>
+        <c:axId val="-1364447776"/>
+        <c:axId val="-1364451584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-744394688"/>
+        <c:axId val="-1364447776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3616,7 +3478,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-744393056"/>
+        <c:crossAx val="-1364451584"/>
         <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3624,13 +3486,13 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-744393056"/>
+        <c:axId val="-1364451584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3661,7 +3523,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-744394688"/>
+        <c:crossAx val="-1364447776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7100,16 +6962,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>125988</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>154563</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7131,15 +6993,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>169137</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>140562</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7162,16 +7024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>106512</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7195,15 +7057,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>126754</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>98179</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7228,13 +7090,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>78121</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>69431</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7258,16 +7120,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>2928</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>69603</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7554,63 +7416,1965 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="Y48" sqref="Y48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>265</v>
+      </c>
+      <c r="E2" s="8">
+        <v>272</v>
+      </c>
+      <c r="F2" s="8">
+        <v>272</v>
+      </c>
+      <c r="G2" s="8">
+        <v>273</v>
+      </c>
+      <c r="H2" s="8">
+        <v>267</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8">
+        <v>26.904699999999998</v>
+      </c>
+      <c r="T2" s="8">
+        <v>25.961300000000001</v>
+      </c>
+      <c r="U2" s="8">
+        <v>26.0305</v>
+      </c>
+      <c r="V2" s="8">
+        <v>26.034300000000002</v>
+      </c>
+      <c r="W2" s="9">
+        <v>25.679400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="37"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>271.25</v>
+      </c>
+      <c r="E3" s="4">
+        <v>275.8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>275.32</v>
+      </c>
+      <c r="G3" s="4">
+        <v>276.93</v>
+      </c>
+      <c r="H3" s="4">
+        <v>271.89999999999998</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4">
+        <v>26.65</v>
+      </c>
+      <c r="T3" s="4">
+        <v>26</v>
+      </c>
+      <c r="U3" s="4">
+        <v>25.84</v>
+      </c>
+      <c r="V3" s="18">
+        <v>25.84</v>
+      </c>
+      <c r="W3" s="11">
+        <v>26.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A4" s="37"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="E4" s="13">
+        <v>19.3</v>
+      </c>
+      <c r="F4" s="13">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G4" s="13">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H4" s="13">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13">
+        <v>0</v>
+      </c>
+      <c r="T4" s="13">
+        <v>0</v>
+      </c>
+      <c r="U4" s="13">
+        <v>0</v>
+      </c>
+      <c r="V4" s="32">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="37"/>
+      <c r="B5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="28">
+        <v>353</v>
+      </c>
+      <c r="E5" s="28">
+        <v>341</v>
+      </c>
+      <c r="F5" s="28">
+        <v>348</v>
+      </c>
+      <c r="G5" s="28">
+        <v>340</v>
+      </c>
+      <c r="H5" s="28">
+        <v>344</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28">
+        <v>77.078900000000004</v>
+      </c>
+      <c r="T5" s="28">
+        <v>76.081800000000001</v>
+      </c>
+      <c r="U5" s="28">
+        <v>76.363399999999999</v>
+      </c>
+      <c r="V5" s="28">
+        <v>76.5839</v>
+      </c>
+      <c r="W5" s="33">
+        <v>77.061000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="37"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>357.98</v>
+      </c>
+      <c r="E6" s="3">
+        <v>345.77</v>
+      </c>
+      <c r="F6" s="3">
+        <v>351.67</v>
+      </c>
+      <c r="G6" s="3">
+        <v>344.92</v>
+      </c>
+      <c r="H6" s="3">
+        <v>348.51</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3">
+        <v>76.72</v>
+      </c>
+      <c r="T6" s="3">
+        <v>75.87</v>
+      </c>
+      <c r="U6" s="3">
+        <v>76.23</v>
+      </c>
+      <c r="V6" s="3">
+        <v>76.91</v>
+      </c>
+      <c r="W6" s="34">
+        <v>77.209999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A7" s="37"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E7" s="31">
+        <v>19.5</v>
+      </c>
+      <c r="F7" s="31">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G7" s="31">
+        <v>19.8</v>
+      </c>
+      <c r="H7" s="31">
+        <v>19.8</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31">
+        <v>0</v>
+      </c>
+      <c r="T7" s="31">
+        <v>0</v>
+      </c>
+      <c r="U7" s="31">
+        <v>0</v>
+      </c>
+      <c r="V7" s="31">
+        <v>0</v>
+      </c>
+      <c r="W7" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="37"/>
+      <c r="B8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="28">
+        <v>8</v>
+      </c>
+      <c r="E8" s="28">
+        <v>8</v>
+      </c>
+      <c r="F8" s="28">
+        <v>9</v>
+      </c>
+      <c r="G8" s="28">
+        <v>8</v>
+      </c>
+      <c r="H8" s="28">
+        <v>8</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28">
+        <v>163.43360000000001</v>
+      </c>
+      <c r="T8" s="28">
+        <v>166.5805</v>
+      </c>
+      <c r="U8" s="28">
+        <v>164.50280000000001</v>
+      </c>
+      <c r="V8" s="28">
+        <v>163.0497</v>
+      </c>
+      <c r="W8" s="33">
+        <v>163.41409999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="37"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>12.06</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12.01</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12.28</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12.14</v>
+      </c>
+      <c r="H9" s="3">
+        <v>11.96</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3">
+        <v>163.21</v>
+      </c>
+      <c r="T9" s="3">
+        <v>166.84</v>
+      </c>
+      <c r="U9" s="3">
+        <v>164.39</v>
+      </c>
+      <c r="V9" s="3">
+        <v>163.58000000000001</v>
+      </c>
+      <c r="W9" s="34">
+        <v>163.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A10" s="37"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="31">
+        <v>19.3</v>
+      </c>
+      <c r="E10" s="31">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F10" s="31">
+        <v>19.7</v>
+      </c>
+      <c r="G10" s="31">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H10" s="31">
+        <v>19.7</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31">
+        <v>0</v>
+      </c>
+      <c r="T10" s="31">
+        <v>0</v>
+      </c>
+      <c r="U10" s="31">
+        <v>0</v>
+      </c>
+      <c r="V10" s="31">
+        <v>0</v>
+      </c>
+      <c r="W10" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="37"/>
+      <c r="B11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="28">
+        <v>2841</v>
+      </c>
+      <c r="E11" s="28">
+        <v>2872</v>
+      </c>
+      <c r="F11" s="28">
+        <v>2783</v>
+      </c>
+      <c r="G11" s="28">
+        <v>2928</v>
+      </c>
+      <c r="H11" s="28">
+        <v>2947</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28">
+        <v>1433.9914000000001</v>
+      </c>
+      <c r="T11" s="28">
+        <v>1524.8643999999999</v>
+      </c>
+      <c r="U11" s="28">
+        <v>1409.4402</v>
+      </c>
+      <c r="V11" s="28">
+        <v>1436.261</v>
+      </c>
+      <c r="W11" s="33">
+        <v>1658.0301999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="37"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2845.6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2876.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2932.08</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1618.28</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1643.78</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3">
+        <v>1433.77</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1525.01</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1409.8</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1436.53</v>
+      </c>
+      <c r="W12" s="34">
+        <v>1658.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A13" s="37"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="31">
+        <v>20800</v>
+      </c>
+      <c r="E13" s="31">
+        <v>20800</v>
+      </c>
+      <c r="F13" s="31">
+        <v>20800</v>
+      </c>
+      <c r="G13" s="31">
+        <v>24100</v>
+      </c>
+      <c r="H13" s="31">
+        <v>4800</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31">
+        <v>7600</v>
+      </c>
+      <c r="T13" s="31">
+        <v>7600</v>
+      </c>
+      <c r="U13" s="31">
+        <v>7600</v>
+      </c>
+      <c r="V13" s="31">
+        <v>7600</v>
+      </c>
+      <c r="W13" s="35">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="37"/>
+      <c r="B14" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="28">
+        <v>866</v>
+      </c>
+      <c r="E14" s="28">
+        <v>913</v>
+      </c>
+      <c r="F14" s="28">
+        <v>850</v>
+      </c>
+      <c r="G14" s="28">
+        <v>878</v>
+      </c>
+      <c r="H14" s="28">
+        <v>908</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28">
+        <v>282.76400000000001</v>
+      </c>
+      <c r="T14" s="28">
+        <v>286.66759999999999</v>
+      </c>
+      <c r="U14" s="28">
+        <v>296.33150000000001</v>
+      </c>
+      <c r="V14" s="28">
+        <v>293.41890000000001</v>
+      </c>
+      <c r="W14" s="33">
+        <v>312.64080000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="37"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>870.57</v>
+      </c>
+      <c r="E15" s="3">
+        <v>917.36</v>
+      </c>
+      <c r="F15" s="3">
+        <v>854.18</v>
+      </c>
+      <c r="G15" s="3">
+        <v>881.98</v>
+      </c>
+      <c r="H15" s="3">
+        <v>912.31</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3">
+        <v>282.58</v>
+      </c>
+      <c r="T15" s="3">
+        <v>286.76</v>
+      </c>
+      <c r="U15" s="3">
+        <v>295.7</v>
+      </c>
+      <c r="V15" s="3">
+        <v>293.18</v>
+      </c>
+      <c r="W15" s="34">
+        <v>312.73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A16" s="37"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="31">
+        <v>8900</v>
+      </c>
+      <c r="E16" s="31">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="31">
+        <v>3000</v>
+      </c>
+      <c r="G16" s="31">
+        <v>10400</v>
+      </c>
+      <c r="H16" s="31">
+        <v>3000</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31">
+        <v>1500</v>
+      </c>
+      <c r="T16" s="31">
+        <v>1500</v>
+      </c>
+      <c r="U16" s="31">
+        <v>1500</v>
+      </c>
+      <c r="V16" s="31">
+        <v>1500</v>
+      </c>
+      <c r="W16" s="35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="37"/>
+      <c r="B17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0</v>
+      </c>
+      <c r="H17" s="28">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28">
+        <v>55.331699999999998</v>
+      </c>
+      <c r="T17" s="28">
+        <v>54.064399999999999</v>
+      </c>
+      <c r="U17" s="28">
+        <v>53.553100000000001</v>
+      </c>
+      <c r="V17" s="28">
+        <v>54.068300000000001</v>
+      </c>
+      <c r="W17" s="33">
+        <v>53.664700000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="37"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4.28</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3.84</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3.96</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.89</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3">
+        <v>55.23</v>
+      </c>
+      <c r="T18" s="3">
+        <v>54.1</v>
+      </c>
+      <c r="U18" s="3">
+        <v>53.88</v>
+      </c>
+      <c r="V18" s="3">
+        <v>53.75</v>
+      </c>
+      <c r="W18" s="34">
+        <v>53.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A19" s="38"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="31">
+        <v>23.3</v>
+      </c>
+      <c r="E19" s="31">
+        <v>22.4</v>
+      </c>
+      <c r="F19" s="31">
+        <v>22.5</v>
+      </c>
+      <c r="G19" s="31">
+        <v>22.6</v>
+      </c>
+      <c r="H19" s="31">
+        <v>22.7</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31">
+        <v>0</v>
+      </c>
+      <c r="T19" s="31">
+        <v>0</v>
+      </c>
+      <c r="U19" s="31">
+        <v>0</v>
+      </c>
+      <c r="V19" s="31">
+        <v>0</v>
+      </c>
+      <c r="W19" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="9"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="37"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="11"/>
+    </row>
+    <row r="22" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A22" s="37"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="37"/>
+      <c r="B23" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="33"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="37"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="34"/>
+    </row>
+    <row r="25" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A25" s="37"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="35"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="37"/>
+      <c r="B26" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="33"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="37"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="34"/>
+    </row>
+    <row r="28" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A28" s="37"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="35"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="37"/>
+      <c r="B29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="33"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="37"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="34"/>
+    </row>
+    <row r="31" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A31" s="37"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="35"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="37"/>
+      <c r="B32" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="33"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="37"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="34"/>
+    </row>
+    <row r="34" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A34" s="37"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="35"/>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="37"/>
+      <c r="B35" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="33"/>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="37"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="34"/>
+    </row>
+    <row r="37" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A37" s="38"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="35"/>
+    </row>
+    <row r="38" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A38" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="43">
+        <v>1631.2360000000001</v>
+      </c>
+      <c r="E38" s="43">
+        <v>1594.79</v>
+      </c>
+      <c r="F38" s="43">
+        <v>1473.77</v>
+      </c>
+      <c r="G38" s="43">
+        <v>1409.08</v>
+      </c>
+      <c r="H38" s="43">
+        <v>1403.578</v>
+      </c>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43">
+        <v>78.462000000000003</v>
+      </c>
+      <c r="T38" s="43">
+        <v>70.570999999999998</v>
+      </c>
+      <c r="U38" s="43">
+        <v>74.203000000000003</v>
+      </c>
+      <c r="V38" s="43">
+        <v>73.974000000000004</v>
+      </c>
+      <c r="W38" s="44">
+        <v>68.864999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A39" s="46"/>
+      <c r="B39" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="43">
+        <v>1427.3130000000001</v>
+      </c>
+      <c r="E39" s="43">
+        <v>1387.9580000000001</v>
+      </c>
+      <c r="F39" s="43">
+        <v>1358.2170000000001</v>
+      </c>
+      <c r="G39" s="43">
+        <v>1341.078</v>
+      </c>
+      <c r="H39" s="43">
+        <v>1365.163</v>
+      </c>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43">
+        <v>120.833</v>
+      </c>
+      <c r="T39" s="43">
+        <v>111.286</v>
+      </c>
+      <c r="U39" s="43">
+        <v>138.167</v>
+      </c>
+      <c r="V39" s="43">
+        <v>110.301</v>
+      </c>
+      <c r="W39" s="44">
+        <v>107.82899999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A40" s="46"/>
+      <c r="B40" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="43">
+        <v>69.3</v>
+      </c>
+      <c r="E40" s="43">
+        <v>72.3</v>
+      </c>
+      <c r="F40" s="43">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="G40" s="43">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="H40" s="43">
+        <v>83.6</v>
+      </c>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43">
+        <v>471.83100000000002</v>
+      </c>
+      <c r="T40" s="43">
+        <v>508.89100000000002</v>
+      </c>
+      <c r="U40" s="43">
+        <v>500.089</v>
+      </c>
+      <c r="V40" s="43">
+        <v>435.846</v>
+      </c>
+      <c r="W40" s="44">
+        <v>469.63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A41" s="46"/>
+      <c r="B41" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="43">
+        <v>8715.9740000000002</v>
+      </c>
+      <c r="E41" s="43">
+        <v>8799.5220000000008</v>
+      </c>
+      <c r="F41" s="43">
+        <v>9119.8160000000007</v>
+      </c>
+      <c r="G41" s="43">
+        <v>9739.8269999999993</v>
+      </c>
+      <c r="H41" s="43">
+        <v>8560.6849999999995</v>
+      </c>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43">
+        <v>3914.7750000000001</v>
+      </c>
+      <c r="T41" s="43">
+        <v>3676.1129999999998</v>
+      </c>
+      <c r="U41" s="43">
+        <v>3835.6819999999998</v>
+      </c>
+      <c r="V41" s="43">
+        <v>3945.32</v>
+      </c>
+      <c r="W41" s="44">
+        <v>3794.201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A42" s="46"/>
+      <c r="B42" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="43">
+        <v>2504.9180000000001</v>
+      </c>
+      <c r="E42" s="43">
+        <v>3290.6129999999998</v>
+      </c>
+      <c r="F42" s="43">
+        <v>2883.0219999999999</v>
+      </c>
+      <c r="G42" s="43">
+        <v>2537.0619999999999</v>
+      </c>
+      <c r="H42" s="43">
+        <v>2464.4540000000002</v>
+      </c>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43">
+        <v>1088.029</v>
+      </c>
+      <c r="T42" s="43">
+        <v>907.73599999999999</v>
+      </c>
+      <c r="U42" s="43">
+        <v>1007.046</v>
+      </c>
+      <c r="V42" s="43">
+        <v>996.24099999999999</v>
+      </c>
+      <c r="W42" s="44">
+        <v>847.36800000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A43" s="47"/>
+      <c r="B43" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="43">
+        <v>2540.2249999999999</v>
+      </c>
+      <c r="E43" s="43">
+        <v>2534.627</v>
+      </c>
+      <c r="F43" s="43">
+        <v>2478.64</v>
+      </c>
+      <c r="G43" s="43">
+        <v>2587.9760000000001</v>
+      </c>
+      <c r="H43" s="43">
+        <v>2656.5639999999999</v>
+      </c>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43">
+        <v>130.012</v>
+      </c>
+      <c r="T43" s="43">
+        <v>147.97999999999999</v>
+      </c>
+      <c r="U43" s="43">
+        <v>107.32299999999999</v>
+      </c>
+      <c r="V43" s="43">
+        <v>107.85</v>
+      </c>
+      <c r="W43" s="44">
+        <v>104.14400000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A44" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="44"/>
+    </row>
+    <row r="45" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A45" s="46"/>
+      <c r="B45" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="44"/>
+    </row>
+    <row r="46" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A46" s="46"/>
+      <c r="B46" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="44"/>
+    </row>
+    <row r="47" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A47" s="46"/>
+      <c r="B47" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="44"/>
+    </row>
+    <row r="48" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A48" s="46"/>
+      <c r="B48" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="44"/>
+    </row>
+    <row r="49" spans="1:23" ht="14.25" thickBot="1">
+      <c r="A49" s="47"/>
+      <c r="B49" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A20:A37"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="35" t="s">
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34" t="s">
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="56"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" thickBot="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -7662,7 +9426,7 @@
       <c r="S2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="48" t="s">
         <v>8</v>
       </c>
       <c r="U2" s="15" t="s">
@@ -7680,7 +9444,7 @@
       <c r="Y2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="49" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7688,1501 +9452,326 @@
       <c r="A3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
-        <v>242</v>
-      </c>
-      <c r="D3" s="8">
-        <v>318</v>
-      </c>
-      <c r="E3" s="8">
-        <v>8.99</v>
-      </c>
-      <c r="F3" s="8">
-        <v>2672</v>
-      </c>
-      <c r="G3" s="8">
-        <v>950</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
-        <v>193</v>
-      </c>
-      <c r="J3" s="8">
-        <v>292</v>
-      </c>
-      <c r="K3" s="8">
-        <v>9</v>
-      </c>
-      <c r="L3" s="8">
-        <v>2635</v>
-      </c>
-      <c r="M3" s="8">
-        <v>580</v>
-      </c>
-      <c r="N3" s="9">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7">
-        <v>148</v>
-      </c>
-      <c r="P3" s="8">
-        <v>313</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>2</v>
-      </c>
-      <c r="R3" s="8">
-        <v>2219</v>
-      </c>
-      <c r="S3" s="8">
-        <v>606</v>
-      </c>
-      <c r="T3" s="16">
-        <v>1</v>
-      </c>
-      <c r="U3" s="29">
-        <v>27.53</v>
-      </c>
-      <c r="V3" s="16">
-        <v>62.2</v>
-      </c>
-      <c r="W3" s="16">
-        <v>164.14</v>
-      </c>
-      <c r="X3" s="16">
-        <v>1296.4000000000001</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>266.39999999999998</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>42.88</v>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8">
+        <f>AVERAGE('raw data'!S2:W2)</f>
+        <v>26.122040000000005</v>
+      </c>
+      <c r="V3" s="8">
+        <f>AVERAGE('raw data'!S5:W5)</f>
+        <v>76.633800000000022</v>
+      </c>
+      <c r="W3" s="28">
+        <f>AVERAGE('raw data'!S8:W8)</f>
+        <v>164.19613999999999</v>
+      </c>
+      <c r="X3" s="28">
+        <f>AVERAGE('raw data'!S11:W11)</f>
+        <v>1492.5174400000001</v>
+      </c>
+      <c r="Y3" s="28">
+        <f>AVERAGE('raw data'!S14:W14)</f>
+        <v>294.36455999999998</v>
+      </c>
+      <c r="Z3" s="33">
+        <f>AVERAGE('raw data'!S17:W17)</f>
+        <v>54.136439999999993</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="36"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
-        <v>247.9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>321.86</v>
-      </c>
-      <c r="E4" s="4">
-        <v>12.05</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2675.3</v>
-      </c>
-      <c r="G4" s="4">
-        <v>953.2</v>
-      </c>
-      <c r="H4" s="11">
-        <v>3.73</v>
-      </c>
-      <c r="I4" s="10">
-        <v>183.5</v>
-      </c>
-      <c r="J4" s="4">
-        <v>301</v>
-      </c>
-      <c r="K4" s="4">
-        <v>10.82</v>
-      </c>
-      <c r="L4" s="4">
-        <v>2637.8</v>
-      </c>
-      <c r="M4" s="4">
-        <v>585.4</v>
-      </c>
-      <c r="N4" s="11">
-        <v>5.2</v>
-      </c>
-      <c r="O4" s="10">
-        <v>160.1</v>
-      </c>
-      <c r="P4" s="4">
-        <v>317.48</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>10.9</v>
-      </c>
-      <c r="R4" s="4">
-        <v>2221.0500000000002</v>
-      </c>
-      <c r="S4" s="4">
-        <v>609.13</v>
-      </c>
-      <c r="T4" s="17">
-        <v>3.81</v>
-      </c>
-      <c r="U4" s="30">
-        <v>28.2</v>
-      </c>
-      <c r="V4" s="17">
-        <v>61.9</v>
-      </c>
-      <c r="W4" s="17">
-        <v>164.37</v>
-      </c>
-      <c r="X4" s="33">
-        <v>1296.5999999999999</v>
-      </c>
-      <c r="Y4" s="17">
-        <v>268.94</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>53.52</v>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4">
+        <f>AVERAGE('raw data'!S3:W3)</f>
+        <v>26.122000000000003</v>
+      </c>
+      <c r="V4" s="4">
+        <f>AVERAGE('raw data'!S6:W6)</f>
+        <v>76.587999999999994</v>
+      </c>
+      <c r="W4" s="3">
+        <f>AVERAGE('raw data'!S9:W9)</f>
+        <v>164.262</v>
+      </c>
+      <c r="X4" s="3">
+        <f>AVERAGE('raw data'!S12:W12)</f>
+        <v>1492.6299999999999</v>
+      </c>
+      <c r="Y4" s="3">
+        <f>AVERAGE('raw data'!S15:W15)</f>
+        <v>294.19</v>
+      </c>
+      <c r="Z4" s="34">
+        <f>AVERAGE('raw data'!S18:W18)</f>
+        <v>54.089999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="36"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:26" ht="14.25" thickBot="1">
+      <c r="A5" s="38"/>
+      <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
-        <v>22.7</v>
-      </c>
-      <c r="D5" s="4">
-        <v>22.7</v>
-      </c>
-      <c r="E5" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="F5" s="4">
-        <v>20800</v>
-      </c>
-      <c r="G5" s="4">
-        <v>3000</v>
-      </c>
-      <c r="H5" s="11">
-        <v>23.1</v>
-      </c>
-      <c r="I5" s="10">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="J5" s="4">
-        <v>18.3</v>
-      </c>
-      <c r="K5" s="4">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="L5" s="4">
-        <v>13500</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15">
+        <f>AVERAGE('raw data'!S4:W4)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="15">
+        <f>AVERAGE('raw data'!S7:W7)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <f>AVERAGE('raw data'!S10:W10)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <f>AVERAGE('raw data'!S13:W13)</f>
+        <v>7600</v>
+      </c>
+      <c r="Y5" s="6">
+        <f>AVERAGE('raw data'!S16:W16)</f>
         <v>1500</v>
       </c>
-      <c r="N5" s="11">
-        <v>17.8</v>
-      </c>
-      <c r="O5" s="10">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="P5" s="4">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="R5" s="4">
-        <v>13200</v>
-      </c>
-      <c r="S5" s="4">
-        <v>1500</v>
-      </c>
-      <c r="T5" s="17">
-        <v>17.7</v>
-      </c>
-      <c r="U5" s="30">
-        <v>0.26</v>
-      </c>
-      <c r="V5" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="W5" s="17">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="X5" s="33">
-        <v>7600</v>
-      </c>
-      <c r="Y5" s="17">
-        <v>1500</v>
-      </c>
-      <c r="Z5" s="11">
-        <v>0.48199999999999998</v>
+      <c r="Z5" s="41">
+        <f>AVERAGE('raw data'!S19:W19)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19">
-        <v>731.4</v>
-      </c>
-      <c r="D6" s="20">
-        <v>977.3</v>
-      </c>
-      <c r="E6" s="20">
-        <v>8778.2000000000007</v>
-      </c>
-      <c r="F6" s="20">
-        <v>3196.8</v>
-      </c>
-      <c r="G6" s="20">
-        <v>1765.7</v>
-      </c>
-      <c r="H6" s="21">
-        <v>1558.3</v>
-      </c>
-      <c r="I6" s="10">
-        <v>426.4</v>
-      </c>
-      <c r="J6" s="4">
-        <v>615.9</v>
-      </c>
-      <c r="K6" s="4">
-        <v>6787.3</v>
-      </c>
-      <c r="L6" s="4">
-        <v>3061.9</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1249.5999999999999</v>
-      </c>
-      <c r="N6" s="11">
-        <v>1131.5999999999999</v>
-      </c>
-      <c r="O6" s="10">
-        <v>404.6</v>
-      </c>
-      <c r="P6" s="4">
-        <v>701.4</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>3921.5</v>
-      </c>
-      <c r="R6" s="4">
-        <v>2568.6</v>
-      </c>
-      <c r="S6" s="4">
-        <v>1174.4000000000001</v>
-      </c>
-      <c r="T6" s="17">
-        <v>1149.7</v>
-      </c>
-      <c r="U6" s="31">
-        <v>29</v>
-      </c>
-      <c r="V6" s="25">
-        <v>53.2</v>
-      </c>
-      <c r="W6" s="25">
-        <v>218.98</v>
-      </c>
-      <c r="X6" s="25">
-        <v>1666</v>
-      </c>
-      <c r="Y6" s="25">
-        <v>313.89999999999998</v>
-      </c>
-      <c r="Z6" s="21">
-        <v>54.5</v>
-      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="58"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="36"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="19">
-        <v>730.7</v>
-      </c>
-      <c r="D7" s="20">
-        <v>976.3</v>
-      </c>
-      <c r="E7" s="32">
-        <v>450.9</v>
-      </c>
-      <c r="F7" s="20">
-        <v>3183.4</v>
-      </c>
-      <c r="G7" s="20">
-        <v>1281.4000000000001</v>
-      </c>
-      <c r="H7" s="21">
-        <v>1553.3</v>
-      </c>
-      <c r="I7" s="10">
-        <v>426.5</v>
-      </c>
-      <c r="J7" s="4">
-        <v>613.70000000000005</v>
-      </c>
-      <c r="K7" s="32">
-        <v>2542.6</v>
-      </c>
-      <c r="L7" s="4">
-        <v>3044.6</v>
-      </c>
-      <c r="M7" s="4">
-        <v>793.6</v>
-      </c>
-      <c r="N7" s="11">
-        <v>1126.5</v>
-      </c>
-      <c r="O7" s="10">
-        <v>411</v>
-      </c>
-      <c r="P7" s="4">
-        <v>698.7</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>3900.3</v>
-      </c>
-      <c r="R7" s="4">
-        <v>2555.7600000000002</v>
-      </c>
-      <c r="S7" s="4">
-        <v>719.5</v>
-      </c>
-      <c r="T7" s="17">
-        <v>1143.8</v>
-      </c>
-      <c r="U7" s="31">
-        <v>29.5</v>
-      </c>
-      <c r="V7" s="25">
-        <v>53.2</v>
-      </c>
-      <c r="W7" s="25">
-        <v>219</v>
-      </c>
-      <c r="X7" s="25">
-        <v>1666.1</v>
-      </c>
-      <c r="Y7" s="25">
-        <v>314</v>
-      </c>
-      <c r="Z7" s="21">
-        <v>54.6</v>
-      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="17"/>
     </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="36"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:26" ht="14.25" thickBot="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="19">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="D8" s="20">
-        <v>17.7</v>
-      </c>
-      <c r="E8" s="20">
-        <v>17.7</v>
-      </c>
-      <c r="F8" s="20">
-        <v>20800</v>
-      </c>
-      <c r="G8" s="20">
-        <v>3000</v>
-      </c>
-      <c r="H8" s="21">
-        <v>18</v>
-      </c>
-      <c r="I8" s="10">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="J8" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="K8" s="4">
-        <v>15.9</v>
-      </c>
-      <c r="L8" s="4">
-        <v>20800</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1500</v>
-      </c>
-      <c r="N8" s="11">
-        <v>16.3</v>
-      </c>
-      <c r="O8" s="10">
-        <v>17.7</v>
-      </c>
-      <c r="P8" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="R8" s="4">
-        <v>12000</v>
-      </c>
-      <c r="S8" s="4">
-        <v>1500</v>
-      </c>
-      <c r="T8" s="17">
-        <v>16</v>
-      </c>
-      <c r="U8" s="31">
-        <v>0.2</v>
-      </c>
-      <c r="V8" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="W8" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="X8" s="25">
-        <v>7600</v>
-      </c>
-      <c r="Y8" s="25">
-        <v>1500</v>
-      </c>
-      <c r="Z8" s="21">
-        <v>0.5</v>
-      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="51"/>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:26" ht="14.25" thickBot="1">
+      <c r="A9" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10">
-        <v>1245.8</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1236.5999999999999</v>
-      </c>
-      <c r="E9" s="4">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="F9" s="4">
-        <v>7976.6</v>
-      </c>
-      <c r="G9" s="4">
-        <v>2439.9</v>
-      </c>
-      <c r="H9" s="11">
-        <v>12.3</v>
-      </c>
-      <c r="I9" s="10">
-        <v>771.524</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1161.5999999999999</v>
-      </c>
-      <c r="K9" s="4">
-        <v>287.12599999999998</v>
-      </c>
-      <c r="L9" s="4">
-        <v>7271.94</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1625.307</v>
-      </c>
-      <c r="N9" s="11">
-        <v>21.37</v>
-      </c>
-      <c r="O9" s="10">
-        <v>822.61800000000005</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1421.6189999999999</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>253.43199999999999</v>
-      </c>
-      <c r="R9" s="4">
-        <v>6529.7259999999997</v>
-      </c>
-      <c r="S9" s="4">
-        <v>1532.1279999999999</v>
-      </c>
-      <c r="T9" s="17">
-        <v>1.8</v>
-      </c>
-      <c r="U9" s="31">
-        <v>55.5</v>
-      </c>
-      <c r="V9" s="25">
-        <v>149.06299999999999</v>
-      </c>
-      <c r="W9" s="25">
-        <v>473</v>
-      </c>
-      <c r="X9" s="25">
-        <v>3749.6</v>
-      </c>
-      <c r="Y9" s="25">
-        <v>993.6</v>
-      </c>
-      <c r="Z9" s="21">
-        <v>136.261</v>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60">
+        <f>AVERAGE('raw data'!S38:W38)</f>
+        <v>73.215000000000003</v>
+      </c>
+      <c r="V9" s="60">
+        <f>AVERAGE('raw data'!S39:W39)</f>
+        <v>117.68319999999999</v>
+      </c>
+      <c r="W9" s="60">
+        <f>AVERAGE('raw data'!S40:W40)</f>
+        <v>477.25739999999996</v>
+      </c>
+      <c r="X9" s="60">
+        <f>AVERAGE('raw data'!S41:W41)</f>
+        <v>3833.2182000000003</v>
+      </c>
+      <c r="Y9" s="60">
+        <f>AVERAGE('raw data'!S42:W42)</f>
+        <v>969.28399999999999</v>
+      </c>
+      <c r="Z9" s="61">
+        <f>AVERAGE('raw data'!S43:W43)</f>
+        <v>119.4618</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" thickBot="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="22">
-        <v>2547.1999999999998</v>
-      </c>
-      <c r="D10" s="23">
-        <v>7557.9</v>
-      </c>
-      <c r="E10" s="23">
-        <v>22580.6</v>
-      </c>
-      <c r="F10" s="23">
-        <v>17957.5</v>
-      </c>
-      <c r="G10" s="23">
-        <v>5685.1</v>
-      </c>
-      <c r="H10" s="24">
-        <v>5585.1</v>
-      </c>
-      <c r="I10" s="12">
-        <v>3445.7</v>
-      </c>
-      <c r="J10" s="13">
-        <v>6354.95</v>
-      </c>
-      <c r="K10" s="13">
-        <v>48315.96</v>
-      </c>
-      <c r="L10" s="13">
-        <v>16737.7</v>
-      </c>
-      <c r="M10" s="13">
-        <v>5278.9</v>
-      </c>
-      <c r="N10" s="14">
-        <v>10050.799999999999</v>
-      </c>
-      <c r="O10" s="12">
-        <v>1687.4</v>
-      </c>
-      <c r="P10" s="13">
-        <v>5970.3</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>11021.6</v>
-      </c>
-      <c r="R10" s="13">
-        <v>14502.9</v>
-      </c>
-      <c r="S10" s="13">
-        <v>3833.97</v>
-      </c>
-      <c r="T10" s="18">
-        <v>3589.88</v>
-      </c>
-      <c r="U10" s="26">
-        <v>45.3</v>
-      </c>
-      <c r="V10" s="27">
-        <v>193.2</v>
-      </c>
-      <c r="W10" s="27">
-        <v>311.39999999999998</v>
-      </c>
-      <c r="X10" s="27">
-        <v>5346.4</v>
-      </c>
-      <c r="Y10" s="27">
-        <v>1270.0999999999999</v>
-      </c>
-      <c r="Z10" s="28">
-        <v>288.89999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" thickBot="1">
-      <c r="A11" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7">
-        <f>C3/U3</f>
-        <v>8.790410461314929</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" ref="D12:H19" si="0">D3/V3</f>
-        <v>5.112540192926045</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
-        <v>5.4770318021201421E-2</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="0"/>
-        <v>2.0610922554767046</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="0"/>
-        <v>3.5660660660660666</v>
-      </c>
-      <c r="H12" s="9">
-        <f t="shared" si="0"/>
-        <v>2.3320895522388058E-2</v>
-      </c>
-      <c r="I12" s="7">
-        <f>I3/U3</f>
-        <v>7.0105339629495091</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" ref="J12:N12" si="1">J3/V3</f>
-        <v>4.694533762057878</v>
-      </c>
-      <c r="K12" s="8">
-        <f t="shared" si="1"/>
-        <v>5.4831241623004755E-2</v>
-      </c>
-      <c r="L12" s="8">
-        <f t="shared" si="1"/>
-        <v>2.0325516815797591</v>
-      </c>
-      <c r="M12" s="8">
-        <f t="shared" si="1"/>
-        <v>2.1771771771771773</v>
-      </c>
-      <c r="N12" s="9">
-        <f t="shared" si="1"/>
-        <v>2.3320895522388058E-2</v>
-      </c>
-      <c r="O12" s="7">
-        <f>O3/U3</f>
-        <v>5.3759535052669811</v>
-      </c>
-      <c r="P12" s="8">
-        <f t="shared" ref="P12:T12" si="2">P3/V3</f>
-        <v>5.032154340836013</v>
-      </c>
-      <c r="Q12" s="8">
-        <f t="shared" si="2"/>
-        <v>1.2184720360667724E-2</v>
-      </c>
-      <c r="R12" s="8">
-        <f t="shared" si="2"/>
-        <v>1.7116630669546435</v>
-      </c>
-      <c r="S12" s="8">
-        <f t="shared" si="2"/>
-        <v>2.2747747747747749</v>
-      </c>
-      <c r="T12" s="9">
-        <f t="shared" si="2"/>
-        <v>2.3320895522388058E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="36"/>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="10">
-        <f t="shared" ref="C13:C19" si="3">C4/U4</f>
-        <v>8.7907801418439728</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>5.1996768982229407</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>7.3310214759384318E-2</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>2.0633194508715103</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="0"/>
-        <v>3.5442849706254185</v>
-      </c>
-      <c r="H13" s="11">
-        <f t="shared" si="0"/>
-        <v>6.9693572496263081E-2</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" ref="I13:I19" si="4">I4/U4</f>
-        <v>6.5070921985815602</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" ref="J13:J19" si="5">J4/V4</f>
-        <v>4.8626817447495965</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" ref="K13:K19" si="6">K4/W4</f>
-        <v>6.5827097402202342E-2</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" ref="L13:L19" si="7">L4/X4</f>
-        <v>2.034397655406448</v>
-      </c>
-      <c r="M13" s="4">
-        <f t="shared" ref="M13:M19" si="8">M4/Y4</f>
-        <v>2.1766936863240871</v>
-      </c>
-      <c r="N13" s="11">
-        <f t="shared" ref="N13:N19" si="9">N4/Z4</f>
-        <v>9.7159940209267562E-2</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" ref="O13:O19" si="10">O4/U4</f>
-        <v>5.6773049645390072</v>
-      </c>
-      <c r="P13" s="4">
-        <f t="shared" ref="P13:P19" si="11">P4/V4</f>
-        <v>5.1289176090468498</v>
-      </c>
-      <c r="Q13" s="4">
-        <f t="shared" ref="Q13:Q19" si="12">Q4/W4</f>
-        <v>6.6313804222181666E-2</v>
-      </c>
-      <c r="R13" s="4">
-        <f t="shared" ref="R13:R19" si="13">R4/X4</f>
-        <v>1.7129801018047204</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" ref="S13:S19" si="14">S4/Y4</f>
-        <v>2.2649289804417343</v>
-      </c>
-      <c r="T13" s="11">
-        <f t="shared" ref="T13:T19" si="15">T4/Z4</f>
-        <v>7.1188340807174885E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="36"/>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="10">
-        <f t="shared" si="3"/>
-        <v>87.307692307692307</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>75.666666666666671</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>62.295081967213115</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>2.736842105263158</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H14" s="11">
-        <f t="shared" si="0"/>
-        <v>47.925311203319509</v>
-      </c>
-      <c r="I14" s="10">
-        <f t="shared" si="4"/>
-        <v>70.769230769230759</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="5"/>
-        <v>61.000000000000007</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="6"/>
-        <v>48.087431693989075</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="7"/>
-        <v>1.7763157894736843</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="11">
-        <f t="shared" si="9"/>
-        <v>36.929460580912867</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="10"/>
-        <v>71.538461538461547</v>
-      </c>
-      <c r="P14" s="4">
-        <f t="shared" si="11"/>
-        <v>57.000000000000007</v>
-      </c>
-      <c r="Q14" s="4">
-        <f t="shared" si="12"/>
-        <v>46.721311475409841</v>
-      </c>
-      <c r="R14" s="4">
-        <f t="shared" si="13"/>
-        <v>1.736842105263158</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="T14" s="11">
-        <f t="shared" si="15"/>
-        <v>36.721991701244811</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="10">
-        <f t="shared" si="3"/>
-        <v>25.220689655172414</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>18.370300751879697</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>40.086765914695413</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9188475390156063</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>5.6250398215992359</v>
-      </c>
-      <c r="H15" s="11">
-        <f t="shared" si="0"/>
-        <v>28.592660550458714</v>
-      </c>
-      <c r="I15" s="10">
-        <f t="shared" si="4"/>
-        <v>14.703448275862069</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="5"/>
-        <v>11.577067669172932</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="6"/>
-        <v>30.995068042743632</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" si="7"/>
-        <v>1.8378751500600241</v>
-      </c>
-      <c r="M15" s="4">
-        <f t="shared" si="8"/>
-        <v>3.9808856323669959</v>
-      </c>
-      <c r="N15" s="11">
-        <f t="shared" si="9"/>
-        <v>20.763302752293576</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="10"/>
-        <v>13.951724137931036</v>
-      </c>
-      <c r="P15" s="4">
-        <f t="shared" si="11"/>
-        <v>13.184210526315788</v>
-      </c>
-      <c r="Q15" s="4">
-        <f t="shared" si="12"/>
-        <v>17.908028130422871</v>
-      </c>
-      <c r="R15" s="4">
-        <f t="shared" si="13"/>
-        <v>1.5417767106842737</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="14"/>
-        <v>3.7413188913666779</v>
-      </c>
-      <c r="T15" s="11">
-        <f t="shared" si="15"/>
-        <v>21.095412844036698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="36"/>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="10">
-        <f t="shared" si="3"/>
-        <v>24.769491525423732</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>18.351503759398494</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>2.058904109589041</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9106896344757218</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="0"/>
-        <v>4.0808917197452228</v>
-      </c>
-      <c r="H16" s="11">
-        <f t="shared" si="0"/>
-        <v>28.448717948717949</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="4"/>
-        <v>14.457627118644067</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="5"/>
-        <v>11.535714285714286</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="6"/>
-        <v>11.610045662100456</v>
-      </c>
-      <c r="L16" s="4">
-        <f t="shared" si="7"/>
-        <v>1.8273813096452793</v>
-      </c>
-      <c r="M16" s="4">
-        <f t="shared" si="8"/>
-        <v>2.527388535031847</v>
-      </c>
-      <c r="N16" s="11">
-        <f t="shared" si="9"/>
-        <v>20.631868131868131</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" si="10"/>
-        <v>13.932203389830509</v>
-      </c>
-      <c r="P16" s="4">
-        <f t="shared" si="11"/>
-        <v>13.133458646616541</v>
-      </c>
-      <c r="Q16" s="4">
-        <f t="shared" si="12"/>
-        <v>17.80958904109589</v>
-      </c>
-      <c r="R16" s="4">
-        <f t="shared" si="13"/>
-        <v>1.5339775523678052</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="14"/>
-        <v>2.2914012738853504</v>
-      </c>
-      <c r="T16" s="11">
-        <f t="shared" si="15"/>
-        <v>20.948717948717949</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="36"/>
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="10">
-        <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="0"/>
-        <v>2.736842105263158</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="I17" s="10">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="6"/>
-        <v>53</v>
-      </c>
-      <c r="L17" s="4">
-        <f t="shared" si="7"/>
-        <v>2.736842105263158</v>
-      </c>
-      <c r="M17" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="11">
-        <f t="shared" si="9"/>
-        <v>32.6</v>
-      </c>
-      <c r="O17" s="10">
-        <f t="shared" si="10"/>
-        <v>88.499999999999986</v>
-      </c>
-      <c r="P17" s="4">
-        <f t="shared" si="11"/>
-        <v>51.666666666666671</v>
-      </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="12"/>
-        <v>51.666666666666671</v>
-      </c>
-      <c r="R17" s="4">
-        <f t="shared" si="13"/>
-        <v>1.5789473684210527</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="T17" s="11">
-        <f t="shared" si="15"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10">
-        <f t="shared" si="3"/>
-        <v>22.446846846846846</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>8.2958212299497536</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14186046511627906</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>2.1273202474930661</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="0"/>
-        <v>2.4556159420289854</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" si="0"/>
-        <v>9.0267941670764199E-2</v>
-      </c>
-      <c r="I18" s="10">
-        <f t="shared" si="4"/>
-        <v>13.901333333333334</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="5"/>
-        <v>7.7926782635529941</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="6"/>
-        <v>0.6070317124735729</v>
-      </c>
-      <c r="L18" s="4">
-        <f t="shared" si="7"/>
-        <v>1.9393908683592915</v>
-      </c>
-      <c r="M18" s="4">
-        <f t="shared" si="8"/>
-        <v>1.6357759661835749</v>
-      </c>
-      <c r="N18" s="11">
-        <f t="shared" si="9"/>
-        <v>0.1568313750816448</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="10"/>
-        <v>14.821945945945947</v>
-      </c>
-      <c r="P18" s="4">
-        <f t="shared" si="11"/>
-        <v>9.5370346766132439</v>
-      </c>
-      <c r="Q18" s="4">
-        <f t="shared" si="12"/>
-        <v>0.53579704016913321</v>
-      </c>
-      <c r="R18" s="4">
-        <f t="shared" si="13"/>
-        <v>1.7414460209088969</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="14"/>
-        <v>1.5419967793880835</v>
-      </c>
-      <c r="T18" s="11">
-        <f t="shared" si="15"/>
-        <v>1.3209942683526469E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="14.25" thickBot="1">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="12">
-        <f t="shared" si="3"/>
-        <v>56.229580573951438</v>
-      </c>
-      <c r="D19" s="13">
-        <f t="shared" si="0"/>
-        <v>39.119565217391305</v>
-      </c>
-      <c r="E19" s="13">
-        <f t="shared" si="0"/>
-        <v>72.513166345536291</v>
-      </c>
-      <c r="F19" s="13">
-        <f t="shared" si="0"/>
-        <v>3.3588021846476135</v>
-      </c>
-      <c r="G19" s="13">
-        <f t="shared" si="0"/>
-        <v>4.476104243760334</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="0"/>
-        <v>19.332294911734166</v>
-      </c>
-      <c r="I19" s="12">
-        <f t="shared" si="4"/>
-        <v>76.064017660044158</v>
-      </c>
-      <c r="J19" s="13">
-        <f t="shared" si="5"/>
-        <v>32.893115942028984</v>
-      </c>
-      <c r="K19" s="13">
-        <f t="shared" si="6"/>
-        <v>155.15722543352601</v>
-      </c>
-      <c r="L19" s="13">
-        <f t="shared" si="7"/>
-        <v>3.1306486607810866</v>
-      </c>
-      <c r="M19" s="13">
-        <f t="shared" si="8"/>
-        <v>4.1562869065427916</v>
-      </c>
-      <c r="N19" s="14">
-        <f t="shared" si="9"/>
-        <v>34.789892696434755</v>
-      </c>
-      <c r="O19" s="12">
-        <f t="shared" si="10"/>
-        <v>37.249448123620311</v>
-      </c>
-      <c r="P19" s="13">
-        <f t="shared" si="11"/>
-        <v>30.90217391304348</v>
-      </c>
-      <c r="Q19" s="13">
-        <f t="shared" si="12"/>
-        <v>35.393705844572899</v>
-      </c>
-      <c r="R19" s="13">
-        <f t="shared" si="13"/>
-        <v>2.7126477629806973</v>
-      </c>
-      <c r="S19" s="13">
-        <f t="shared" si="14"/>
-        <v>3.0186363278482009</v>
-      </c>
-      <c r="T19" s="14">
-        <f t="shared" si="15"/>
-        <v>12.426029768085844</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="3:8">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="3:8">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="3:8">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="3:8">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="3:8">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="3:8">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="3:8">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="3:8">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="3:8">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="3:8">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A11:Z11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
+  <mergeCells count="7">
     <mergeCell ref="U1:Z1"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="A3:A5"/>
@@ -9193,6 +9782,436 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:T8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="9"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="19"/>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="19"/>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="19"/>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="19"/>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="9885" windowWidth="21585" windowHeight="12540"/>
+    <workbookView xWindow="4125" yWindow="9885" windowWidth="21585" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
   <si>
     <t>Profiler Time(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,10 @@
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LuaScriptException: not enough memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -175,7 +179,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,16 +202,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -661,13 +678,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,41 +832,8 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -776,41 +850,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -824,27 +868,6 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -852,12 +875,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -872,9 +889,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -929,7 +1058,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1256,11 +1384,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="-1369390144"/>
-        <c:axId val="-1369390688"/>
+        <c:axId val="2136044608"/>
+        <c:axId val="2136041888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1369390144"/>
+        <c:axId val="2136044608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1431,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1369390688"/>
+        <c:crossAx val="2136041888"/>
         <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1311,7 +1439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1369390688"/>
+        <c:axId val="2136041888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,7 +1476,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1369390144"/>
+        <c:crossAx val="2136044608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1362,7 +1490,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1469,7 +1596,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1796,11 +1922,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="-1369380352"/>
-        <c:axId val="-1369383072"/>
+        <c:axId val="2136038624"/>
+        <c:axId val="2136045696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1369380352"/>
+        <c:axId val="2136038624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,7 +1969,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1369383072"/>
+        <c:crossAx val="2136045696"/>
         <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1851,7 +1977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1369383072"/>
+        <c:axId val="2136045696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +2014,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1369380352"/>
+        <c:crossAx val="2136038624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1902,7 +2028,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2009,7 +2134,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2227,11 +2351,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="-1369389056"/>
-        <c:axId val="-1369386880"/>
+        <c:axId val="2136047328"/>
+        <c:axId val="2136041344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1369389056"/>
+        <c:axId val="2136047328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,7 +2398,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1369386880"/>
+        <c:crossAx val="2136041344"/>
         <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2282,7 +2406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1369386880"/>
+        <c:axId val="2136041344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,7 +2443,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1369389056"/>
+        <c:crossAx val="2136047328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2333,7 +2457,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2440,7 +2563,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2611,11 +2733,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="-1369395584"/>
-        <c:axId val="-1369392320"/>
+        <c:axId val="2136044064"/>
+        <c:axId val="2136047872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1369395584"/>
+        <c:axId val="2136044064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2658,7 +2780,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1369392320"/>
+        <c:crossAx val="2136047872"/>
         <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2666,7 +2788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1369392320"/>
+        <c:axId val="2136047872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +2825,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1369395584"/>
+        <c:crossAx val="2136044064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2717,7 +2839,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2829,7 +2950,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3000,11 +3120,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="-1369395040"/>
-        <c:axId val="-1369391776"/>
+        <c:axId val="2136033728"/>
+        <c:axId val="2136034272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1369395040"/>
+        <c:axId val="2136033728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +3167,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1369391776"/>
+        <c:crossAx val="2136034272"/>
         <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3055,7 +3175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1369391776"/>
+        <c:axId val="2136034272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3092,7 +3212,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1369395040"/>
+        <c:crossAx val="2136033728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3106,7 +3226,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3213,7 +3332,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3431,11 +3549,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="-1364447776"/>
-        <c:axId val="-1364451584"/>
+        <c:axId val="144517120"/>
+        <c:axId val="144513856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1364447776"/>
+        <c:axId val="144517120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3478,7 +3596,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1364451584"/>
+        <c:crossAx val="144513856"/>
         <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3486,7 +3604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1364451584"/>
+        <c:axId val="144513856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,7 +3641,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1364447776"/>
+        <c:crossAx val="144517120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3537,7 +3655,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7418,57 +7535,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="Y43" sqref="Y38:Y43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A1" s="20"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="24" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="26" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="8">
@@ -7486,16 +7611,36 @@
       <c r="H2" s="8">
         <v>267</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="I2" s="8">
+        <v>186</v>
+      </c>
+      <c r="J2" s="8">
+        <v>185</v>
+      </c>
+      <c r="K2" s="8">
+        <v>182</v>
+      </c>
+      <c r="L2" s="8">
+        <v>185</v>
+      </c>
+      <c r="M2" s="8">
+        <v>192</v>
+      </c>
+      <c r="N2" s="8">
+        <v>149</v>
+      </c>
+      <c r="O2" s="8">
+        <v>147</v>
+      </c>
+      <c r="P2" s="8">
+        <v>146</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>148</v>
+      </c>
+      <c r="R2" s="8">
+        <v>147</v>
+      </c>
       <c r="S2" s="8">
         <v>26.904699999999998</v>
       </c>
@@ -7513,8 +7658,8 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="37"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -7533,16 +7678,36 @@
       <c r="H3" s="4">
         <v>271.89999999999998</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="I3" s="4">
+        <v>191.95</v>
+      </c>
+      <c r="J3" s="4">
+        <v>188.76</v>
+      </c>
+      <c r="K3" s="4">
+        <v>185.25</v>
+      </c>
+      <c r="L3" s="4">
+        <v>188.78</v>
+      </c>
+      <c r="M3" s="4">
+        <v>195.87</v>
+      </c>
+      <c r="N3" s="4">
+        <v>158.19</v>
+      </c>
+      <c r="O3" s="4">
+        <v>150.08000000000001</v>
+      </c>
+      <c r="P3" s="4">
+        <v>150.25</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>150.18</v>
+      </c>
+      <c r="R3" s="4">
+        <v>150.72</v>
+      </c>
       <c r="S3" s="4">
         <v>26.65</v>
       </c>
@@ -7560,9 +7725,9 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="13">
@@ -7580,16 +7745,36 @@
       <c r="H4" s="13">
         <v>19.600000000000001</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="I4" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="J4" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="K4" s="13">
+        <v>17.7</v>
+      </c>
+      <c r="L4" s="13">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M4" s="13">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="N4" s="13">
+        <v>18.7</v>
+      </c>
+      <c r="O4" s="13">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="P4" s="13">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>17.3</v>
+      </c>
+      <c r="R4" s="13">
+        <v>17.5</v>
+      </c>
       <c r="S4" s="13">
         <v>0</v>
       </c>
@@ -7599,7 +7784,7 @@
       <c r="U4" s="13">
         <v>0</v>
       </c>
-      <c r="V4" s="32">
+      <c r="V4" s="21">
         <v>0</v>
       </c>
       <c r="W4" s="14">
@@ -7607,728 +7792,1024 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="37"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="8">
         <v>353</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="8">
         <v>341</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="8">
         <v>348</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="8">
         <v>340</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="8">
         <v>344</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28">
+      <c r="I5" s="8">
+        <v>293</v>
+      </c>
+      <c r="J5" s="8">
+        <v>291</v>
+      </c>
+      <c r="K5" s="8">
+        <v>297</v>
+      </c>
+      <c r="L5" s="8">
+        <v>291</v>
+      </c>
+      <c r="M5" s="8">
+        <v>293</v>
+      </c>
+      <c r="N5" s="8">
+        <v>304</v>
+      </c>
+      <c r="O5" s="8">
+        <v>312</v>
+      </c>
+      <c r="P5" s="8">
+        <v>312</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>312</v>
+      </c>
+      <c r="R5" s="8">
+        <v>315</v>
+      </c>
+      <c r="S5" s="8">
         <v>77.078900000000004</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="8">
         <v>76.081800000000001</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="8">
         <v>76.363399999999999</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="8">
         <v>76.5839</v>
       </c>
-      <c r="W5" s="33">
+      <c r="W5" s="9">
         <v>77.061000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="37"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>357.98</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>345.77</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>351.67</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>344.92</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>348.51</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3">
+      <c r="I6" s="4">
+        <v>296.93</v>
+      </c>
+      <c r="J6" s="4">
+        <v>294.57</v>
+      </c>
+      <c r="K6" s="4">
+        <v>299.5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>295.10000000000002</v>
+      </c>
+      <c r="M6" s="4">
+        <v>295.52999999999997</v>
+      </c>
+      <c r="N6" s="4">
+        <v>325.8</v>
+      </c>
+      <c r="O6" s="4">
+        <v>315.42</v>
+      </c>
+      <c r="P6" s="4">
+        <v>316.48</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>316.01</v>
+      </c>
+      <c r="R6" s="4">
+        <v>319.24</v>
+      </c>
+      <c r="S6" s="4">
         <v>76.72</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="4">
         <v>75.87</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="4">
         <v>76.23</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="4">
         <v>76.91</v>
       </c>
-      <c r="W6" s="34">
+      <c r="W6" s="11">
         <v>77.209999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="13">
         <v>19.600000000000001</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="13">
         <v>19.5</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="13">
         <v>19.600000000000001</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="13">
         <v>19.8</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="13">
         <v>19.8</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31">
+      <c r="I7" s="13">
+        <v>18.7</v>
+      </c>
+      <c r="J7" s="13">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K7" s="13">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L7" s="13">
+        <v>18.2</v>
+      </c>
+      <c r="M7" s="13">
+        <v>18.2</v>
+      </c>
+      <c r="N7" s="13">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="O7" s="13">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="P7" s="13">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="R7" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="S7" s="13">
         <v>0</v>
       </c>
-      <c r="T7" s="31">
+      <c r="T7" s="13">
         <v>0</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U7" s="13">
         <v>0</v>
       </c>
-      <c r="V7" s="31">
+      <c r="V7" s="13">
         <v>0</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W7" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="37"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="8">
         <v>8</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="8">
         <v>8</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="8">
         <v>9</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="8">
         <v>8</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="8">
         <v>8</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28">
+      <c r="I8" s="8">
+        <v>9</v>
+      </c>
+      <c r="J8" s="8">
+        <v>9</v>
+      </c>
+      <c r="K8" s="8">
+        <v>8</v>
+      </c>
+      <c r="L8" s="8">
+        <v>8</v>
+      </c>
+      <c r="M8" s="8">
+        <v>8</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>8</v>
+      </c>
+      <c r="P8" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>8</v>
+      </c>
+      <c r="R8" s="8">
+        <v>8</v>
+      </c>
+      <c r="S8" s="8">
         <v>163.43360000000001</v>
       </c>
-      <c r="T8" s="28">
+      <c r="T8" s="8">
         <v>166.5805</v>
       </c>
-      <c r="U8" s="28">
+      <c r="U8" s="8">
         <v>164.50280000000001</v>
       </c>
-      <c r="V8" s="28">
+      <c r="V8" s="8">
         <v>163.0497</v>
       </c>
-      <c r="W8" s="33">
+      <c r="W8" s="9">
         <v>163.41409999999999</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="37"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>12.06</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>12.01</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>12.28</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>12.14</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>11.96</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3">
+      <c r="I9" s="4">
+        <v>12.35</v>
+      </c>
+      <c r="J9" s="4">
+        <v>11.54</v>
+      </c>
+      <c r="K9" s="4">
+        <v>11.43</v>
+      </c>
+      <c r="L9" s="4">
+        <v>11.48</v>
+      </c>
+      <c r="M9" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="N9" s="4">
+        <v>16.11</v>
+      </c>
+      <c r="O9" s="4">
+        <v>11.21</v>
+      </c>
+      <c r="P9" s="4">
+        <v>11.17</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>11.47</v>
+      </c>
+      <c r="R9" s="4">
+        <v>11.81</v>
+      </c>
+      <c r="S9" s="4">
         <v>163.21</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="4">
         <v>166.84</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="4">
         <v>164.39</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="4">
         <v>163.58000000000001</v>
       </c>
-      <c r="W9" s="34">
+      <c r="W9" s="11">
         <v>163.29</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="13">
         <v>19.3</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="13">
         <v>19.399999999999999</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="13">
         <v>19.7</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="13">
         <v>19.600000000000001</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="13">
         <v>19.7</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31">
+      <c r="I10" s="13">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J10" s="13">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K10" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="L10" s="13">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M10" s="13">
+        <v>18.7</v>
+      </c>
+      <c r="N10" s="13">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="O10" s="13">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="P10" s="13">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>17.2</v>
+      </c>
+      <c r="R10" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="S10" s="13">
         <v>0</v>
       </c>
-      <c r="T10" s="31">
+      <c r="T10" s="13">
         <v>0</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="13">
         <v>0</v>
       </c>
-      <c r="V10" s="31">
+      <c r="V10" s="13">
         <v>0</v>
       </c>
-      <c r="W10" s="35">
+      <c r="W10" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="37"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="8">
         <v>2841</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="8">
         <v>2872</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="8">
         <v>2783</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="8">
         <v>2928</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="8">
         <v>2947</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28">
+      <c r="I11" s="8">
+        <v>2643</v>
+      </c>
+      <c r="J11" s="8">
+        <v>2440</v>
+      </c>
+      <c r="K11" s="8">
+        <v>2733</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2332</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="8">
+        <v>2316</v>
+      </c>
+      <c r="O11" s="8">
+        <v>2307</v>
+      </c>
+      <c r="P11" s="8">
+        <v>2257</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>2216</v>
+      </c>
+      <c r="R11" s="8">
+        <v>2235</v>
+      </c>
+      <c r="S11" s="8">
         <v>1433.9914000000001</v>
       </c>
-      <c r="T11" s="28">
+      <c r="T11" s="8">
         <v>1524.8643999999999</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="8">
         <v>1409.4402</v>
       </c>
-      <c r="V11" s="28">
+      <c r="V11" s="8">
         <v>1436.261</v>
       </c>
-      <c r="W11" s="33">
+      <c r="W11" s="9">
         <v>1658.0301999999999</v>
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="37"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>2845.6</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>2876.1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>2932.08</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>1618.28</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <v>1643.78</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3">
+      <c r="I12" s="4">
+        <v>2648.19</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2443.8000000000002</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2737.62</v>
+      </c>
+      <c r="L12" s="4">
+        <v>817.84</v>
+      </c>
+      <c r="M12" s="69"/>
+      <c r="N12" s="4">
+        <v>2326.92</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2310.61</v>
+      </c>
+      <c r="P12" s="4">
+        <v>2261.5700000000002</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>2231.44</v>
+      </c>
+      <c r="R12" s="4">
+        <v>2239.08</v>
+      </c>
+      <c r="S12" s="4">
         <v>1433.77</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="4">
         <v>1525.01</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="4">
         <v>1409.8</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="4">
         <v>1436.53</v>
       </c>
-      <c r="W12" s="34">
+      <c r="W12" s="11">
         <v>1658.04</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="13">
         <v>20800</v>
       </c>
-      <c r="E13" s="31">
-        <v>20800</v>
-      </c>
-      <c r="F13" s="31">
-        <v>20800</v>
-      </c>
-      <c r="G13" s="31">
+      <c r="E13" s="13">
+        <v>7600</v>
+      </c>
+      <c r="F13" s="13">
+        <v>7600</v>
+      </c>
+      <c r="G13" s="13">
         <v>24100</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="13">
         <v>4800</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31">
+      <c r="I13" s="13">
+        <v>13500</v>
+      </c>
+      <c r="J13" s="13">
+        <v>15000</v>
+      </c>
+      <c r="K13" s="13">
+        <v>24100</v>
+      </c>
+      <c r="L13" s="13">
+        <v>2600</v>
+      </c>
+      <c r="M13" s="70"/>
+      <c r="N13" s="13">
+        <v>13200</v>
+      </c>
+      <c r="O13" s="13">
         <v>7600</v>
       </c>
-      <c r="T13" s="31">
+      <c r="P13" s="13">
         <v>7600</v>
       </c>
-      <c r="U13" s="31">
+      <c r="Q13" s="13">
         <v>7600</v>
       </c>
-      <c r="V13" s="31">
+      <c r="R13" s="13">
         <v>7600</v>
       </c>
-      <c r="W13" s="35">
+      <c r="S13" s="13">
+        <v>7600</v>
+      </c>
+      <c r="T13" s="13">
+        <v>7600</v>
+      </c>
+      <c r="U13" s="13">
+        <v>7600</v>
+      </c>
+      <c r="V13" s="13">
+        <v>7600</v>
+      </c>
+      <c r="W13" s="14">
         <v>7600</v>
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="37"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="8">
         <v>866</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="8">
         <v>913</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="8">
         <v>850</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="8">
         <v>878</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="8">
         <v>908</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28">
+      <c r="I14" s="8">
+        <v>637</v>
+      </c>
+      <c r="J14" s="8">
+        <v>623</v>
+      </c>
+      <c r="K14" s="8">
+        <v>696</v>
+      </c>
+      <c r="L14" s="8">
+        <v>623</v>
+      </c>
+      <c r="M14" s="8">
+        <v>779</v>
+      </c>
+      <c r="N14" s="8">
+        <v>602</v>
+      </c>
+      <c r="O14" s="8">
+        <v>627</v>
+      </c>
+      <c r="P14" s="8">
+        <v>597</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>681</v>
+      </c>
+      <c r="R14" s="8">
+        <v>634</v>
+      </c>
+      <c r="S14" s="8">
         <v>282.76400000000001</v>
       </c>
-      <c r="T14" s="28">
+      <c r="T14" s="8">
         <v>286.66759999999999</v>
       </c>
-      <c r="U14" s="28">
+      <c r="U14" s="8">
         <v>296.33150000000001</v>
       </c>
-      <c r="V14" s="28">
+      <c r="V14" s="8">
         <v>293.41890000000001</v>
       </c>
-      <c r="W14" s="33">
+      <c r="W14" s="9">
         <v>312.64080000000001</v>
       </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="37"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>870.57</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>917.36</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>854.18</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <v>881.98</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <v>912.31</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3">
+      <c r="I15" s="4">
+        <v>643.11</v>
+      </c>
+      <c r="J15" s="4">
+        <v>626.83000000000004</v>
+      </c>
+      <c r="K15" s="4">
+        <v>699.23</v>
+      </c>
+      <c r="L15" s="4">
+        <v>625.91999999999996</v>
+      </c>
+      <c r="M15" s="4">
+        <v>778.27</v>
+      </c>
+      <c r="N15" s="4">
+        <v>614.13</v>
+      </c>
+      <c r="O15" s="4">
+        <v>630.04</v>
+      </c>
+      <c r="P15" s="4">
+        <v>600.16999999999996</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>684.53</v>
+      </c>
+      <c r="R15" s="4">
+        <v>637.76</v>
+      </c>
+      <c r="S15" s="4">
         <v>282.58</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="4">
         <v>286.76</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="4">
         <v>295.7</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="4">
         <v>293.18</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15" s="11">
         <v>312.73</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="13">
         <v>8900</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="13">
         <v>3000</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="13">
         <v>3000</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="13">
         <v>10400</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="13">
         <v>3000</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31">
+      <c r="I16" s="13">
+        <v>4200</v>
+      </c>
+      <c r="J16" s="13">
+        <v>4800</v>
+      </c>
+      <c r="K16" s="13">
         <v>1500</v>
       </c>
-      <c r="T16" s="31">
+      <c r="L16" s="13">
         <v>1500</v>
       </c>
-      <c r="U16" s="31">
+      <c r="M16" s="13">
         <v>1500</v>
       </c>
-      <c r="V16" s="31">
+      <c r="N16" s="13">
+        <v>3900</v>
+      </c>
+      <c r="O16" s="13">
+        <v>4100</v>
+      </c>
+      <c r="P16" s="13">
+        <v>1600</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>2000</v>
+      </c>
+      <c r="R16" s="13">
         <v>1500</v>
       </c>
-      <c r="W16" s="35">
+      <c r="S16" s="13">
+        <v>1500</v>
+      </c>
+      <c r="T16" s="13">
+        <v>1500</v>
+      </c>
+      <c r="U16" s="13">
+        <v>1500</v>
+      </c>
+      <c r="V16" s="13">
+        <v>1500</v>
+      </c>
+      <c r="W16" s="14">
         <v>1500</v>
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="37"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="8">
         <v>0</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="8">
         <v>0</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="8">
         <v>0</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="8">
         <v>0</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28">
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
+      </c>
+      <c r="S17" s="8">
         <v>55.331699999999998</v>
       </c>
-      <c r="T17" s="28">
+      <c r="T17" s="8">
         <v>54.064399999999999</v>
       </c>
-      <c r="U17" s="28">
+      <c r="U17" s="8">
         <v>53.553100000000001</v>
       </c>
-      <c r="V17" s="28">
+      <c r="V17" s="8">
         <v>54.068300000000001</v>
       </c>
-      <c r="W17" s="33">
+      <c r="W17" s="9">
         <v>53.664700000000003</v>
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="37"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>4.28</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>3.84</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <v>3.96</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="4">
         <v>3.89</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3">
+      <c r="I18" s="4">
+        <v>6.19</v>
+      </c>
+      <c r="J18" s="4">
+        <v>3.66</v>
+      </c>
+      <c r="K18" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="L18" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="M18" s="4">
+        <v>3.86</v>
+      </c>
+      <c r="N18" s="4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="O18" s="4">
+        <v>3.28</v>
+      </c>
+      <c r="P18" s="4">
+        <v>3.22</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>3.22</v>
+      </c>
+      <c r="R18" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="S18" s="4">
         <v>55.23</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="4">
         <v>54.1</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="4">
         <v>53.88</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="4">
         <v>53.75</v>
       </c>
-      <c r="W18" s="34">
+      <c r="W18" s="11">
         <v>53.49</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="13">
         <v>23.3</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="13">
         <v>22.4</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="13">
         <v>22.5</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="13">
         <v>22.6</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="13">
         <v>22.7</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31">
+      <c r="I19" s="13">
+        <v>18.2</v>
+      </c>
+      <c r="J19" s="13">
+        <v>17.7</v>
+      </c>
+      <c r="K19" s="13">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L19" s="13">
+        <v>17.7</v>
+      </c>
+      <c r="M19" s="13">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="N19" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="O19" s="13">
+        <v>16.8</v>
+      </c>
+      <c r="P19" s="13">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="R19" s="13">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="S19" s="13">
         <v>0</v>
       </c>
-      <c r="T19" s="31">
+      <c r="T19" s="13">
         <v>0</v>
       </c>
-      <c r="U19" s="31">
+      <c r="U19" s="13">
         <v>0</v>
       </c>
-      <c r="V19" s="31">
+      <c r="V19" s="13">
         <v>0</v>
       </c>
-      <c r="W19" s="35">
+      <c r="W19" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="8"/>
@@ -8353,8 +8834,8 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="37"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
@@ -8380,9 +8861,9 @@
       <c r="W21" s="11"/>
     </row>
     <row r="22" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="13"/>
@@ -8403,898 +8884,1031 @@
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
-      <c r="V22" s="32"/>
+      <c r="V22" s="21"/>
       <c r="W22" s="14"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="37"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="33"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="37"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="34"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="11"/>
     </row>
     <row r="25" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="35"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="14"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="37"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="33"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="37"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="34"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="11"/>
     </row>
     <row r="28" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="35"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="14"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="37"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="33"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="9"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="37"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="34"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="11"/>
     </row>
     <row r="31" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="35"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="14"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="37"/>
-      <c r="B32" s="27" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="33"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="9"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="37"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="34"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="11"/>
     </row>
     <row r="34" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="35"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="14"/>
     </row>
     <row r="35" spans="1:23">
-      <c r="A35" s="37"/>
-      <c r="B35" s="27" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="33"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="9"/>
     </row>
     <row r="36" spans="1:23">
-      <c r="A36" s="37"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="34"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="11"/>
     </row>
     <row r="37" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A37" s="38"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="35"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="14"/>
     </row>
     <row r="38" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="32">
         <v>1631.2360000000001</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="32">
         <v>1594.79</v>
       </c>
-      <c r="F38" s="43">
+      <c r="F38" s="32">
         <v>1473.77</v>
       </c>
-      <c r="G38" s="43">
+      <c r="G38" s="32">
         <v>1409.08</v>
       </c>
-      <c r="H38" s="43">
+      <c r="H38" s="32">
         <v>1403.578</v>
       </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43">
+      <c r="I38" s="32">
+        <v>970.077</v>
+      </c>
+      <c r="J38" s="32">
+        <v>869.90499999999997</v>
+      </c>
+      <c r="K38" s="32">
+        <v>886.226</v>
+      </c>
+      <c r="L38" s="32">
+        <v>867.98099999999999</v>
+      </c>
+      <c r="M38" s="32">
+        <v>877.90499999999997</v>
+      </c>
+      <c r="N38" s="32">
+        <v>2387.9119999999998</v>
+      </c>
+      <c r="O38" s="32">
+        <v>2583.1660000000002</v>
+      </c>
+      <c r="P38" s="32">
+        <v>2543.5160000000001</v>
+      </c>
+      <c r="Q38" s="32">
+        <v>2322.6849999999999</v>
+      </c>
+      <c r="R38" s="32">
+        <v>2342.511</v>
+      </c>
+      <c r="S38" s="32">
         <v>78.462000000000003</v>
       </c>
-      <c r="T38" s="43">
+      <c r="T38" s="32">
         <v>70.570999999999998</v>
       </c>
-      <c r="U38" s="43">
+      <c r="U38" s="32">
         <v>74.203000000000003</v>
       </c>
-      <c r="V38" s="43">
+      <c r="V38" s="32">
         <v>73.974000000000004</v>
       </c>
-      <c r="W38" s="44">
+      <c r="W38" s="33">
         <v>68.864999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A39" s="46"/>
-      <c r="B39" s="42" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="32">
         <v>1427.3130000000001</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="32">
         <v>1387.9580000000001</v>
       </c>
-      <c r="F39" s="43">
+      <c r="F39" s="32">
         <v>1358.2170000000001</v>
       </c>
-      <c r="G39" s="43">
+      <c r="G39" s="32">
         <v>1341.078</v>
       </c>
-      <c r="H39" s="43">
+      <c r="H39" s="32">
         <v>1365.163</v>
       </c>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43">
+      <c r="I39" s="32">
+        <v>4339.0690000000004</v>
+      </c>
+      <c r="J39" s="32">
+        <v>4800.1189999999997</v>
+      </c>
+      <c r="K39" s="32">
+        <v>4567.2209999999995</v>
+      </c>
+      <c r="L39" s="32">
+        <v>4523.3509999999997</v>
+      </c>
+      <c r="M39" s="32">
+        <v>4532.9949999999999</v>
+      </c>
+      <c r="N39" s="32">
+        <v>7504.4790000000003</v>
+      </c>
+      <c r="O39" s="32">
+        <v>7471.2979999999998</v>
+      </c>
+      <c r="P39" s="32">
+        <v>1492.0619999999999</v>
+      </c>
+      <c r="Q39" s="32">
+        <v>1506.749</v>
+      </c>
+      <c r="R39" s="32">
+        <v>1481.1790000000001</v>
+      </c>
+      <c r="S39" s="32">
         <v>120.833</v>
       </c>
-      <c r="T39" s="43">
+      <c r="T39" s="32">
         <v>111.286</v>
       </c>
-      <c r="U39" s="43">
+      <c r="U39" s="32">
         <v>138.167</v>
       </c>
-      <c r="V39" s="43">
+      <c r="V39" s="32">
         <v>110.301</v>
       </c>
-      <c r="W39" s="44">
+      <c r="W39" s="33">
         <v>107.82899999999999</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A40" s="46"/>
-      <c r="B40" s="42" t="s">
+      <c r="A40" s="39"/>
+      <c r="B40" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="32">
         <v>69.3</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="32">
         <v>72.3</v>
       </c>
-      <c r="F40" s="43">
+      <c r="F40" s="32">
         <v>73.099999999999994</v>
       </c>
-      <c r="G40" s="43">
+      <c r="G40" s="32">
         <v>68.400000000000006</v>
       </c>
-      <c r="H40" s="43">
+      <c r="H40" s="32">
         <v>83.6</v>
       </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43">
+      <c r="I40" s="32">
+        <v>114284.192</v>
+      </c>
+      <c r="J40" s="32">
+        <v>114576.818</v>
+      </c>
+      <c r="K40" s="26">
+        <v>112047.037</v>
+      </c>
+      <c r="L40" s="26">
+        <v>111241.192</v>
+      </c>
+      <c r="M40" s="74">
+        <v>112318.692</v>
+      </c>
+      <c r="N40" s="32">
+        <v>226.578</v>
+      </c>
+      <c r="O40" s="32">
+        <v>208.46799999999999</v>
+      </c>
+      <c r="P40" s="32">
+        <v>211.363</v>
+      </c>
+      <c r="Q40" s="32">
+        <v>202.547</v>
+      </c>
+      <c r="R40" s="32">
+        <v>201.36199999999999</v>
+      </c>
+      <c r="S40" s="32">
         <v>471.83100000000002</v>
       </c>
-      <c r="T40" s="43">
+      <c r="T40" s="32">
         <v>508.89100000000002</v>
       </c>
-      <c r="U40" s="43">
+      <c r="U40" s="32">
         <v>500.089</v>
       </c>
-      <c r="V40" s="43">
+      <c r="V40" s="32">
         <v>435.846</v>
       </c>
-      <c r="W40" s="44">
+      <c r="W40" s="33">
         <v>469.63</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A41" s="46"/>
-      <c r="B41" s="42" t="s">
+      <c r="A41" s="39"/>
+      <c r="B41" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="32">
         <v>8715.9740000000002</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="32">
         <v>8799.5220000000008</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F41" s="32">
         <v>9119.8160000000007</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="32">
         <v>9739.8269999999993</v>
       </c>
-      <c r="H41" s="43">
+      <c r="H41" s="32">
         <v>8560.6849999999995</v>
       </c>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43">
+      <c r="I41" s="32">
+        <v>7922.1809999999996</v>
+      </c>
+      <c r="J41" s="32">
+        <v>7938.8770000000004</v>
+      </c>
+      <c r="K41" s="32">
+        <v>9090.4050000000007</v>
+      </c>
+      <c r="L41" s="32">
+        <v>7439.1859999999997</v>
+      </c>
+      <c r="M41" s="32">
+        <v>9271.3089999999993</v>
+      </c>
+      <c r="N41" s="32">
+        <v>7150.11</v>
+      </c>
+      <c r="O41" s="32">
+        <v>7176.1639999999998</v>
+      </c>
+      <c r="P41" s="32">
+        <v>7306.5190000000002</v>
+      </c>
+      <c r="Q41" s="32">
+        <v>7208.3519999999999</v>
+      </c>
+      <c r="R41" s="32">
+        <v>7137.05</v>
+      </c>
+      <c r="S41" s="32">
         <v>3914.7750000000001</v>
       </c>
-      <c r="T41" s="43">
+      <c r="T41" s="32">
         <v>3676.1129999999998</v>
       </c>
-      <c r="U41" s="43">
+      <c r="U41" s="32">
         <v>3835.6819999999998</v>
       </c>
-      <c r="V41" s="43">
+      <c r="V41" s="32">
         <v>3945.32</v>
       </c>
-      <c r="W41" s="44">
+      <c r="W41" s="33">
         <v>3794.201</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A42" s="46"/>
-      <c r="B42" s="42" t="s">
+      <c r="A42" s="39"/>
+      <c r="B42" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="32">
         <v>2504.9180000000001</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="32">
         <v>3290.6129999999998</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F42" s="32">
         <v>2883.0219999999999</v>
       </c>
-      <c r="G42" s="43">
+      <c r="G42" s="32">
         <v>2537.0619999999999</v>
       </c>
-      <c r="H42" s="43">
+      <c r="H42" s="32">
         <v>2464.4540000000002</v>
       </c>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43">
+      <c r="I42" s="32">
+        <v>1951.192</v>
+      </c>
+      <c r="J42" s="32">
+        <v>1884.146</v>
+      </c>
+      <c r="K42" s="32">
+        <v>2105.7469999999998</v>
+      </c>
+      <c r="L42" s="32">
+        <v>1825.4349999999999</v>
+      </c>
+      <c r="M42" s="32">
+        <v>2069.4180000000001</v>
+      </c>
+      <c r="N42" s="32">
+        <v>1787.7919999999999</v>
+      </c>
+      <c r="O42" s="32">
+        <v>1777.1659999999999</v>
+      </c>
+      <c r="P42" s="32">
+        <v>1677.88</v>
+      </c>
+      <c r="Q42" s="32">
+        <v>1739.971</v>
+      </c>
+      <c r="R42" s="32">
+        <v>1630.6659999999999</v>
+      </c>
+      <c r="S42" s="32">
         <v>1088.029</v>
       </c>
-      <c r="T42" s="43">
+      <c r="T42" s="32">
         <v>907.73599999999999</v>
       </c>
-      <c r="U42" s="43">
+      <c r="U42" s="32">
         <v>1007.046</v>
       </c>
-      <c r="V42" s="43">
+      <c r="V42" s="32">
         <v>996.24099999999999</v>
       </c>
-      <c r="W42" s="44">
+      <c r="W42" s="33">
         <v>847.36800000000005</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A43" s="47"/>
-      <c r="B43" s="42" t="s">
+      <c r="A43" s="40"/>
+      <c r="B43" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="43">
-        <v>2540.2249999999999</v>
-      </c>
-      <c r="E43" s="43">
-        <v>2534.627</v>
-      </c>
-      <c r="F43" s="43">
-        <v>2478.64</v>
-      </c>
-      <c r="G43" s="43">
-        <v>2587.9760000000001</v>
-      </c>
-      <c r="H43" s="43">
-        <v>2656.5639999999999</v>
-      </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43">
+      <c r="D43" s="32">
+        <v>18.96</v>
+      </c>
+      <c r="E43" s="32">
+        <v>0.35</v>
+      </c>
+      <c r="F43" s="32">
+        <v>0.44</v>
+      </c>
+      <c r="G43" s="32">
+        <v>0.44</v>
+      </c>
+      <c r="H43" s="32">
+        <v>0.42</v>
+      </c>
+      <c r="I43" s="32">
+        <v>11977.79</v>
+      </c>
+      <c r="J43" s="32">
+        <v>11391.742</v>
+      </c>
+      <c r="K43" s="32">
+        <v>11418.312</v>
+      </c>
+      <c r="L43" s="32">
+        <v>11422.775</v>
+      </c>
+      <c r="M43" s="32">
+        <v>10976.407999999999</v>
+      </c>
+      <c r="N43" s="32">
+        <v>12788.268</v>
+      </c>
+      <c r="O43" s="32">
+        <v>12996.482</v>
+      </c>
+      <c r="P43" s="32">
+        <v>13648.609</v>
+      </c>
+      <c r="Q43" s="32">
+        <v>12955.77</v>
+      </c>
+      <c r="R43" s="32">
+        <v>13737.486000000001</v>
+      </c>
+      <c r="S43" s="32">
         <v>130.012</v>
       </c>
-      <c r="T43" s="43">
+      <c r="T43" s="32">
         <v>147.97999999999999</v>
       </c>
-      <c r="U43" s="43">
+      <c r="U43" s="32">
         <v>107.32299999999999</v>
       </c>
-      <c r="V43" s="43">
+      <c r="V43" s="32">
         <v>107.85</v>
       </c>
-      <c r="W43" s="44">
+      <c r="W43" s="33">
         <v>104.14400000000001</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="44"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="33"/>
     </row>
     <row r="45" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A45" s="46"/>
-      <c r="B45" s="42" t="s">
+      <c r="A45" s="39"/>
+      <c r="B45" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="44"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="33"/>
     </row>
     <row r="46" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A46" s="46"/>
-      <c r="B46" s="42" t="s">
+      <c r="A46" s="39"/>
+      <c r="B46" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="44"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="33"/>
     </row>
     <row r="47" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A47" s="46"/>
-      <c r="B47" s="42" t="s">
+      <c r="A47" s="39"/>
+      <c r="B47" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="44"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="33"/>
     </row>
     <row r="48" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A48" s="46"/>
-      <c r="B48" s="42" t="s">
+      <c r="A48" s="39"/>
+      <c r="B48" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="44"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="33"/>
     </row>
     <row r="49" spans="1:23" ht="14.25" thickBot="1">
-      <c r="A49" s="47"/>
-      <c r="B49" s="42" t="s">
+      <c r="A49" s="40"/>
+      <c r="B49" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="44"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="A38:A43"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A20:A37"/>
@@ -9304,18 +9918,6 @@
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9325,56 +9927,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="39"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53" t="s">
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="54" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55" t="s">
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="56"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="54"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" thickBot="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -9426,7 +10029,7 @@
       <c r="S2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="27" t="s">
         <v>8</v>
       </c>
       <c r="U2" s="15" t="s">
@@ -9444,35 +10047,89 @@
       <c r="Y2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="49" t="s">
+      <c r="Z2" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="C3" s="7">
+        <f>AVERAGE('raw data'!D2:H2)</f>
+        <v>269.8</v>
+      </c>
+      <c r="D3" s="8">
+        <f>AVERAGE('raw data'!D5:H5)</f>
+        <v>345.2</v>
+      </c>
+      <c r="E3" s="8">
+        <f>AVERAGE('raw data'!D8:H8)</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F3" s="8">
+        <f>AVERAGE('raw data'!D11:H11)</f>
+        <v>2874.2</v>
+      </c>
+      <c r="G3" s="8">
+        <f>AVERAGE('raw data'!D14:H14)</f>
+        <v>883</v>
+      </c>
+      <c r="H3" s="8">
+        <f>AVERAGE('raw data'!D17:H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <f>AVERAGE('raw data'!I2:M2)</f>
+        <v>186</v>
+      </c>
+      <c r="J3" s="8">
+        <f>AVERAGE('raw data'!I5:M5)</f>
+        <v>293</v>
+      </c>
+      <c r="K3" s="8">
+        <f>AVERAGE('raw data'!I8:M8)</f>
+        <v>8.4</v>
+      </c>
+      <c r="L3" s="8">
+        <f>AVERAGE('raw data'!I11:L11)</f>
+        <v>2537</v>
+      </c>
+      <c r="M3" s="8">
+        <f>AVERAGE('raw data'!I14:M14)</f>
+        <v>671.6</v>
+      </c>
+      <c r="N3" s="8">
+        <f>AVERAGE('raw data'!I17:M17)</f>
+        <v>0.4</v>
+      </c>
+      <c r="O3" s="8">
+        <f>AVERAGE('raw data'!N2:R2)</f>
+        <v>147.4</v>
+      </c>
+      <c r="P3" s="8">
+        <f>AVERAGE('raw data'!N5:R5)</f>
+        <v>311</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>AVERAGE('raw data'!N8:R8)</f>
+        <v>6.4</v>
+      </c>
+      <c r="R3" s="8">
+        <f>AVERAGE('raw data'!N11:R11)</f>
+        <v>2266.1999999999998</v>
+      </c>
+      <c r="S3" s="8">
+        <f>AVERAGE('raw data'!N14:R14)</f>
+        <v>628.20000000000005</v>
+      </c>
+      <c r="T3" s="8">
+        <f>AVERAGE('raw data'!N17:R17)</f>
+        <v>0.2</v>
+      </c>
       <c r="U3" s="8">
         <f>AVERAGE('raw data'!S2:W2)</f>
         <v>26.122040000000005</v>
@@ -9481,46 +10138,100 @@
         <f>AVERAGE('raw data'!S5:W5)</f>
         <v>76.633800000000022</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="19">
         <f>AVERAGE('raw data'!S8:W8)</f>
         <v>164.19613999999999</v>
       </c>
-      <c r="X3" s="28">
+      <c r="X3" s="19">
         <f>AVERAGE('raw data'!S11:W11)</f>
         <v>1492.5174400000001</v>
       </c>
-      <c r="Y3" s="28">
+      <c r="Y3" s="19">
         <f>AVERAGE('raw data'!S14:W14)</f>
         <v>294.36455999999998</v>
       </c>
-      <c r="Z3" s="33">
+      <c r="Z3" s="22">
         <f>AVERAGE('raw data'!S17:W17)</f>
         <v>54.136439999999993</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="37"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="C4" s="10">
+        <f>AVERAGE('raw data'!D3:H3)</f>
+        <v>274.23999999999995</v>
+      </c>
+      <c r="D4" s="4">
+        <f>AVERAGE('raw data'!D6:H6)</f>
+        <v>349.77000000000004</v>
+      </c>
+      <c r="E4" s="4">
+        <f>AVERAGE('raw data'!D9:H9)</f>
+        <v>12.09</v>
+      </c>
+      <c r="F4" s="4">
+        <f>AVERAGE('raw data'!D12:H12)</f>
+        <v>2383.1680000000001</v>
+      </c>
+      <c r="G4" s="4">
+        <f>AVERAGE('raw data'!D15:H15)</f>
+        <v>887.28</v>
+      </c>
+      <c r="H4" s="4">
+        <f>AVERAGE('raw data'!D18:H18)</f>
+        <v>3.9940000000000007</v>
+      </c>
+      <c r="I4" s="4">
+        <f>AVERAGE('raw data'!I3:M3)</f>
+        <v>190.12200000000001</v>
+      </c>
+      <c r="J4" s="4">
+        <f>AVERAGE('raw data'!I6:M6)</f>
+        <v>296.32599999999996</v>
+      </c>
+      <c r="K4" s="4">
+        <f>AVERAGE('raw data'!I9:M9)</f>
+        <v>11.639999999999999</v>
+      </c>
+      <c r="L4" s="4">
+        <f>AVERAGE('raw data'!I12:L12)</f>
+        <v>2161.8624999999997</v>
+      </c>
+      <c r="M4" s="4">
+        <f>AVERAGE('raw data'!I15:M15)</f>
+        <v>674.67200000000003</v>
+      </c>
+      <c r="N4" s="4">
+        <f>AVERAGE('raw data'!I18:M18)</f>
+        <v>4.0900000000000007</v>
+      </c>
+      <c r="O4" s="4">
+        <f>AVERAGE('raw data'!N3:R3)</f>
+        <v>151.88400000000001</v>
+      </c>
+      <c r="P4" s="4">
+        <f>AVERAGE('raw data'!N6:R6)</f>
+        <v>318.59000000000003</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>AVERAGE('raw data'!N9:R9)</f>
+        <v>12.354000000000001</v>
+      </c>
+      <c r="R4" s="4">
+        <f>AVERAGE('raw data'!N12:R12)</f>
+        <v>2273.924</v>
+      </c>
+      <c r="S4" s="4">
+        <f>AVERAGE('raw data'!N15:R15)</f>
+        <v>633.32600000000002</v>
+      </c>
+      <c r="T4" s="4">
+        <f>AVERAGE('raw data'!N18:R18)</f>
+        <v>4.6839999999999993</v>
+      </c>
       <c r="U4" s="4">
         <f>AVERAGE('raw data'!S3:W3)</f>
         <v>26.122000000000003</v>
@@ -9541,96 +10252,150 @@
         <f>AVERAGE('raw data'!S15:W15)</f>
         <v>294.19</v>
       </c>
-      <c r="Z4" s="34">
+      <c r="Z4" s="23">
         <f>AVERAGE('raw data'!S18:W18)</f>
         <v>54.089999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" thickBot="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15">
+      <c r="C5" s="12">
+        <f>AVERAGE('raw data'!D4:H4)</f>
+        <v>19.439999999999998</v>
+      </c>
+      <c r="D5" s="13">
+        <f>AVERAGE('raw data'!D7:H7)</f>
+        <v>19.66</v>
+      </c>
+      <c r="E5" s="13">
+        <f>AVERAGE('raw data'!D10:H10)</f>
+        <v>19.54</v>
+      </c>
+      <c r="F5" s="13">
+        <f>AVERAGE('raw data'!D13:H13)</f>
+        <v>12980</v>
+      </c>
+      <c r="G5" s="13">
+        <f>AVERAGE('raw data'!D16:H16)</f>
+        <v>5660</v>
+      </c>
+      <c r="H5" s="13">
+        <f>AVERAGE('raw data'!D19:H19)</f>
+        <v>22.700000000000003</v>
+      </c>
+      <c r="I5" s="13">
+        <f>AVERAGE('raw data'!I4:M4)</f>
+        <v>17.840000000000003</v>
+      </c>
+      <c r="J5" s="13">
+        <f>AVERAGE('raw data'!I7:M7)</f>
+        <v>18.22</v>
+      </c>
+      <c r="K5" s="13">
+        <f>AVERAGE('raw data'!I10:M10)</f>
+        <v>18.520000000000003</v>
+      </c>
+      <c r="L5" s="13">
+        <f>AVERAGE('raw data'!I13:L13)</f>
+        <v>13800</v>
+      </c>
+      <c r="M5" s="13">
+        <f>AVERAGE('raw data'!I16:M16)</f>
+        <v>2700</v>
+      </c>
+      <c r="N5" s="13">
+        <f>AVERAGE('raw data'!I19:M19)</f>
+        <v>17.82</v>
+      </c>
+      <c r="O5" s="13">
+        <f>AVERAGE('raw data'!N4:R4)</f>
+        <v>17.5</v>
+      </c>
+      <c r="P5" s="13">
+        <f>AVERAGE('raw data'!N7:R7)</f>
+        <v>17.46</v>
+      </c>
+      <c r="Q5" s="13">
+        <f>AVERAGE('raw data'!N10:R10)</f>
+        <v>17.34</v>
+      </c>
+      <c r="R5" s="13">
+        <f>AVERAGE('raw data'!N13:R13)</f>
+        <v>8720</v>
+      </c>
+      <c r="S5" s="13">
+        <f>AVERAGE('raw data'!N16:R16)</f>
+        <v>2620</v>
+      </c>
+      <c r="T5" s="13">
+        <f>AVERAGE('raw data'!N19:R19)</f>
+        <v>17.360000000000003</v>
+      </c>
+      <c r="U5" s="13">
         <f>AVERAGE('raw data'!S4:W4)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="13">
         <f>AVERAGE('raw data'!S7:W7)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="20">
         <f>AVERAGE('raw data'!S10:W10)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="20">
         <f>AVERAGE('raw data'!S13:W13)</f>
         <v>7600</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="20">
         <f>AVERAGE('raw data'!S16:W16)</f>
         <v>1500</v>
       </c>
-      <c r="Z5" s="41">
+      <c r="Z5" s="24">
         <f>AVERAGE('raw data'!S19:W19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="58"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="67"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="37"/>
-      <c r="B7" s="65" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="35" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="16"/>
@@ -9659,16 +10424,16 @@
       <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" thickBot="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="66" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -9681,94 +10446,151 @@
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="51"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="30"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" thickBot="1">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60">
+      <c r="C9" s="31">
+        <f>AVERAGE('raw data'!D38:H38)</f>
+        <v>1502.4908</v>
+      </c>
+      <c r="D9" s="26">
+        <f>AVERAGE('raw data'!D39:H39)</f>
+        <v>1375.9458000000002</v>
+      </c>
+      <c r="E9" s="26">
+        <f>AVERAGE('raw data'!D40:H40)</f>
+        <v>73.34</v>
+      </c>
+      <c r="F9" s="26">
+        <f>AVERAGE('raw data'!D41:H41)</f>
+        <v>8987.1647999999986</v>
+      </c>
+      <c r="G9" s="26">
+        <f>AVERAGE('raw data'!D42:H42)</f>
+        <v>2736.0137999999997</v>
+      </c>
+      <c r="H9" s="26">
+        <f>AVERAGE('raw data'!D43:H43)</f>
+        <v>4.1220000000000017</v>
+      </c>
+      <c r="I9" s="32">
+        <f>AVERAGE('raw data'!I38:M38)</f>
+        <v>894.41880000000003</v>
+      </c>
+      <c r="J9" s="32">
+        <f>AVERAGE('raw data'!I39:M39)</f>
+        <v>4552.5509999999995</v>
+      </c>
+      <c r="K9" s="32">
+        <f>AVERAGE('raw data'!I40:M40)</f>
+        <v>112893.58619999999</v>
+      </c>
+      <c r="L9" s="32">
+        <f>AVERAGE('raw data'!I41:M41)</f>
+        <v>8332.3916000000008</v>
+      </c>
+      <c r="M9" s="32">
+        <f>AVERAGE('raw data'!I42:M42)</f>
+        <v>1967.1875999999997</v>
+      </c>
+      <c r="N9" s="32">
+        <f>AVERAGE('raw data'!I43:M43)</f>
+        <v>11437.4054</v>
+      </c>
+      <c r="O9" s="2">
+        <f>AVERAGE('raw data'!N38:R38)</f>
+        <v>2435.9579999999996</v>
+      </c>
+      <c r="P9" s="2">
+        <f>AVERAGE('raw data'!N39:R39)</f>
+        <v>3891.1534000000001</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>AVERAGE('raw data'!N40:R40)</f>
+        <v>210.06360000000001</v>
+      </c>
+      <c r="R9" s="2">
+        <f>AVERAGE('raw data'!N41:R41)</f>
+        <v>7195.6390000000001</v>
+      </c>
+      <c r="S9" s="2">
+        <f>AVERAGE('raw data'!N42:R42)</f>
+        <v>1722.6949999999997</v>
+      </c>
+      <c r="T9" s="2">
+        <f>AVERAGE('raw data'!N43:R43)</f>
+        <v>13225.323</v>
+      </c>
+      <c r="U9" s="32">
         <f>AVERAGE('raw data'!S38:W38)</f>
         <v>73.215000000000003</v>
       </c>
-      <c r="V9" s="60">
+      <c r="V9" s="32">
         <f>AVERAGE('raw data'!S39:W39)</f>
         <v>117.68319999999999</v>
       </c>
-      <c r="W9" s="60">
+      <c r="W9" s="32">
         <f>AVERAGE('raw data'!S40:W40)</f>
         <v>477.25739999999996</v>
       </c>
-      <c r="X9" s="60">
+      <c r="X9" s="32">
         <f>AVERAGE('raw data'!S41:W41)</f>
         <v>3833.2182000000003</v>
       </c>
-      <c r="Y9" s="60">
+      <c r="Y9" s="32">
         <f>AVERAGE('raw data'!S42:W42)</f>
         <v>969.28399999999999</v>
       </c>
-      <c r="Z9" s="61">
+      <c r="Z9" s="33">
         <f>AVERAGE('raw data'!S43:W43)</f>
         <v>119.4618</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" thickBot="1">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="63"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="73"/>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9782,6 +10604,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9806,7 +10629,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -9832,7 +10655,7 @@
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="19"/>
+      <c r="A2" s="61"/>
       <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
@@ -9856,7 +10679,7 @@
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="19"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
@@ -9880,7 +10703,7 @@
       <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -9906,7 +10729,7 @@
       <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="19"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
@@ -9930,7 +10753,7 @@
       <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="19"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
